--- a/SAMPLES/Nemijenjani/zz_lista_volontera_23_24.xlsx
+++ b/SAMPLES/Nemijenjani/zz_lista_volontera_23_24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lobel\Documents\Lobel\Zlatni Zmaj\Evidencija\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lobel\Documents\Lobel\Zlatni Zmaj\Izvjesce\ZZ_Report_Analysis\SAMPLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C160CBA1-3C1F-4497-9F56-6BC36244F492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95EB53A-0F81-418D-B5A2-B81A3F3FFEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="1" xr2:uid="{E4510751-5150-4AC6-8207-09F7448F3FDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{E4510751-5150-4AC6-8207-09F7448F3FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="raspored" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="252">
   <si>
     <t>svaki utorak i četvrtak 19:30 - 21:00</t>
   </si>
@@ -751,9 +751,6 @@
     <t>Veronika Grgić</t>
   </si>
   <si>
-    <t xml:space="preserve">PŠVPrelog </t>
-  </si>
-  <si>
     <t>Petar Celjak</t>
   </si>
   <si>
@@ -794,6 +791,9 @@
   </si>
   <si>
     <t>Sara Pobor</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -1078,9 +1078,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1487,11 +1484,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0F55AA-7299-4F00-97AE-87619793A2A1}">
   <dimension ref="A1:BV139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="9" topLeftCell="G118" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="6" ySplit="9" topLeftCell="G115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,6 +1513,10 @@
       </c>
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>COUNT(F:F)</f>
+        <v>91</v>
+      </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
@@ -1543,10 +1544,6 @@
       </c>
     </row>
     <row r="7" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="F7">
-        <f>COUNTIF(G7:BB7,"&lt;&gt;")</f>
-        <v>48</v>
-      </c>
       <c r="G7" s="8" t="s">
         <v>17</v>
       </c>
@@ -4253,6 +4250,9 @@
       <c r="E128" s="24"/>
     </row>
     <row r="130" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>251</v>
+      </c>
       <c r="E130" s="12" t="s">
         <v>186</v>
       </c>
@@ -4262,6 +4262,9 @@
       </c>
     </row>
     <row r="131" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>251</v>
+      </c>
       <c r="E131" t="s">
         <v>187</v>
       </c>
@@ -4403,13 +4406,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201BFF41-329F-4302-807C-28192EFA8C38}">
-  <dimension ref="A2:CK138"/>
+  <dimension ref="A1:CK141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F52" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="5" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4418,1092 +4421,821 @@
     <col min="3" max="3" width="4.42578125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="66" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="67" max="69" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="70" max="73" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="81" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <f>COUNT(E:E)</f>
+        <v>51</v>
+      </c>
+    </row>
     <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>192</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>193</v>
       </c>
-      <c r="E2">
-        <f>COUNTIF(E9:E92, "&gt;9")</f>
+      <c r="D2">
+        <f>COUNTIF(E12:E95, "&gt;9")</f>
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
-        <f>SUM(E9:E92)</f>
+      <c r="D6">
+        <f>SUM(E12:E95)</f>
         <v>229</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N6" t="s">
         <v>194</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U6" t="s">
         <v>195</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y6" t="s">
         <v>196</v>
       </c>
-      <c r="AC3" s="30" t="s">
+      <c r="AC6" t="s">
         <v>197</v>
       </c>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-    </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="F4" s="8">
+    </row>
+    <row r="7" spans="1:89" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="8">
         <v>45202</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G7" s="8">
         <v>45204</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H7" s="8">
         <v>45209</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I7" s="8">
         <v>45211</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J7" s="8">
         <v>45216</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K7" s="8">
         <v>45218</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L7" s="8">
         <v>45223</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M7" s="8">
         <v>45225</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N7" s="8">
         <v>45230</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O7" s="8">
         <v>45232</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P7" s="8">
         <v>45237</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q7" s="8">
         <v>45239</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R7" s="8">
         <v>45244</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S7" s="8">
         <v>45246</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T7" s="8">
         <v>45251</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U7" s="8">
         <v>45253</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V7" s="8">
         <v>45258</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W7" s="8">
         <v>45260</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X7" s="8">
         <v>45265</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y7" s="8">
         <v>45267</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z7" s="8">
         <v>45272</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA7" s="8">
         <v>45274</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB7" s="8">
         <v>45279</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC7" s="8">
         <v>45281</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AD7" s="8">
         <v>45286</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AE7" s="8">
         <v>45288</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AF7" s="8">
         <v>45293</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AG7" s="8">
         <v>45295</v>
       </c>
-      <c r="AH4" s="8">
+      <c r="AH7" s="8">
         <v>45300</v>
       </c>
-      <c r="AI4" s="8">
+      <c r="AI7" s="8">
         <v>45302</v>
       </c>
-      <c r="AJ4" s="8">
+      <c r="AJ7" s="8">
         <v>45307</v>
       </c>
-      <c r="AK4" s="8">
+      <c r="AK7" s="8">
         <v>45309</v>
       </c>
-      <c r="AL4" s="8">
+      <c r="AL7" s="8">
         <v>45314</v>
       </c>
-      <c r="AM4" s="8">
+      <c r="AM7" s="8">
         <v>45316</v>
       </c>
-      <c r="AN4" s="8">
+      <c r="AN7" s="8">
         <v>45321</v>
       </c>
-      <c r="AO4" s="8">
+      <c r="AO7" s="8">
         <v>45323</v>
       </c>
-      <c r="AP4" s="8">
+      <c r="AP7" s="8">
         <v>45328</v>
       </c>
-      <c r="AQ4" s="8">
+      <c r="AQ7" s="8">
         <v>45330</v>
       </c>
-      <c r="AR4" s="8">
+      <c r="AR7" s="8">
         <v>45335</v>
       </c>
-      <c r="AS4" s="8">
+      <c r="AS7" s="8">
         <v>45337</v>
       </c>
-      <c r="AT4" s="8">
+      <c r="AT7" s="8">
         <v>45342</v>
       </c>
-      <c r="AU4" s="8">
+      <c r="AU7" s="8">
         <v>45344</v>
       </c>
-      <c r="AV4" s="8">
+      <c r="AV7" s="8">
         <v>45349</v>
       </c>
-      <c r="AW4" s="8">
+      <c r="AW7" s="8">
         <v>45351</v>
       </c>
-      <c r="AX4" s="8">
+      <c r="AX7" s="8">
         <v>45356</v>
       </c>
-      <c r="AY4" s="8">
+      <c r="AY7" s="8">
         <v>45358</v>
       </c>
-      <c r="AZ4" s="8">
+      <c r="AZ7" s="8">
         <v>45363</v>
       </c>
-      <c r="BA4" s="8">
+      <c r="BA7" s="8">
         <v>45365</v>
       </c>
-      <c r="BB4" s="8">
+      <c r="BB7" s="8">
         <v>45370</v>
       </c>
-      <c r="BC4" s="8">
+      <c r="BC7" s="8">
         <v>45372</v>
       </c>
-      <c r="BD4" s="8">
+      <c r="BD7" s="8">
         <v>45377</v>
       </c>
-      <c r="BE4" s="8">
+      <c r="BE7" s="8">
         <v>45379</v>
       </c>
-      <c r="BF4" s="8">
+      <c r="BF7" s="8">
         <v>45384</v>
       </c>
-      <c r="BG4" s="8">
+      <c r="BG7" s="8">
         <v>45386</v>
       </c>
-      <c r="BH4" s="8">
+      <c r="BH7" s="8">
         <v>45391</v>
       </c>
-      <c r="BI4" s="8">
+      <c r="BI7" s="8">
         <v>45393</v>
       </c>
-      <c r="BJ4" s="8">
+      <c r="BJ7" s="8">
         <v>45398</v>
       </c>
-      <c r="BK4" s="8">
+      <c r="BK7" s="8">
         <v>45400</v>
       </c>
-      <c r="BL4" s="8">
+      <c r="BL7" s="8">
         <v>45405</v>
       </c>
-      <c r="BM4" s="8">
+      <c r="BM7" s="8">
         <v>45407</v>
       </c>
-      <c r="BN4" s="8">
+      <c r="BN7" s="8">
         <v>45412</v>
       </c>
-      <c r="BO4" s="8">
+      <c r="BO7" s="8">
         <v>45414</v>
       </c>
-      <c r="BP4" s="8">
+      <c r="BP7" s="8">
         <v>45419</v>
       </c>
-      <c r="BQ4" s="8">
+      <c r="BQ7" s="8">
         <v>45421</v>
       </c>
-      <c r="BR4" s="8">
+      <c r="BR7" s="8">
         <v>45426</v>
       </c>
-      <c r="BS4" s="8">
+      <c r="BS7" s="8">
         <v>45428</v>
       </c>
-      <c r="BT4" s="8">
+      <c r="BT7" s="8">
         <v>45433</v>
       </c>
-      <c r="BU4" s="8">
+      <c r="BU7" s="8">
         <v>45435</v>
       </c>
-      <c r="BV4" s="8">
+      <c r="BV7" s="8">
         <v>45440</v>
       </c>
-      <c r="BW4" s="8">
+      <c r="BW7" s="8">
         <v>45442</v>
       </c>
-      <c r="BX4" s="8">
+      <c r="BX7" s="8">
         <v>45447</v>
       </c>
-      <c r="BY4" s="8">
+      <c r="BY7" s="8">
         <v>45449</v>
       </c>
-      <c r="BZ4" s="8">
+      <c r="BZ7" s="8">
         <v>45454</v>
       </c>
-      <c r="CA4" s="8">
+      <c r="CA7" s="8">
         <v>45456</v>
       </c>
-      <c r="CB4" s="8">
+      <c r="CB7" s="8">
         <v>45461</v>
       </c>
-      <c r="CC4" s="8">
+      <c r="CC7" s="8">
         <v>45463</v>
       </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="14">
-        <f t="shared" ref="F5:M5" si="0">COUNTIF(F9:F127,"da")</f>
+      <c r="F8" s="14">
+        <f t="shared" ref="F8:M8" si="0">COUNTIF(F12:F130,"da")</f>
         <v>3</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G8" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H8" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J8" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L8" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M8" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N8" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="O5" s="14">
-        <f t="shared" ref="O5:AB5" si="1">COUNTIF(O9:O127,"da")</f>
+      <c r="O8" s="14">
+        <f t="shared" ref="O8:AB8" si="1">COUNTIF(O12:O130,"da")</f>
         <v>3</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P8" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q8" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R8" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S8" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T8" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U8" s="14">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V8" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="W5" s="14">
+      <c r="W8" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X8" s="14">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Y8" s="14">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="Z8" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AA5" s="14">
+      <c r="AA8" s="14">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AB5" s="14">
+      <c r="AB8" s="14">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AC5" s="13" t="s">
+      <c r="AC8" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="AD5" s="13" t="s">
+      <c r="AD8" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="AE5" s="13" t="s">
+      <c r="AE8" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="AF5" s="13" t="s">
+      <c r="AF8" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="AG5" s="13" t="s">
+      <c r="AG8" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="AH5" s="14">
-        <f t="shared" ref="AH5:AS5" si="2">COUNTIF(AH9:AH127,"da")</f>
+      <c r="AH8" s="14">
+        <f t="shared" ref="AH8:AS8" si="2">COUNTIF(AH12:AH130,"da")</f>
         <v>2</v>
       </c>
-      <c r="AI5" s="14">
+      <c r="AI8" s="14">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AJ5" s="14">
+      <c r="AJ8" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AK5" s="14">
+      <c r="AK8" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AL5" s="14">
+      <c r="AL8" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AM5" s="14">
+      <c r="AM8" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AN5" s="14">
+      <c r="AN8" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AO5" s="14">
+      <c r="AO8" s="14">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AP5" s="14">
+      <c r="AP8" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AQ5" s="14">
+      <c r="AQ8" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AR5" s="14">
+      <c r="AR8" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AS5" s="14">
+      <c r="AS8" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AT5" s="13" t="s">
+      <c r="AT8" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="AU5" s="13" t="s">
+      <c r="AU8" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="AV5" s="14">
-        <f t="shared" ref="AV5:CB5" si="3">COUNTIF(AV9:AV127,"da")</f>
+      <c r="AV8" s="14">
+        <f t="shared" ref="AV8:BD8" si="3">COUNTIF(AV12:AV130,"da")</f>
         <v>3</v>
       </c>
-      <c r="AW5" s="14">
+      <c r="AW8" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AX5" s="14">
+      <c r="AX8" s="14">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AY5" s="14">
+      <c r="AY8" s="14">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AZ5" s="14">
+      <c r="AZ8" s="14">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="BA5" s="14">
+      <c r="BA8" s="14">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BB5" s="14">
+      <c r="BB8" s="14">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BC5" s="14">
+      <c r="BC8" s="14">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BD5" s="14">
+      <c r="BD8" s="14">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BE5" s="13" t="s">
+      <c r="BE8" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="BF5" s="13" t="s">
+      <c r="BF8" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="BG5" s="13" t="s">
+      <c r="BG8" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="BH5" s="14">
-        <f t="shared" si="3"/>
+      <c r="BH8" s="14">
+        <f t="shared" ref="BH8:BV8" si="4">COUNTIF(BH12:BH130,"da")</f>
         <v>5</v>
       </c>
-      <c r="BI5" s="14">
-        <f t="shared" si="3"/>
+      <c r="BI8" s="14">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="BJ5" s="14">
-        <f t="shared" si="3"/>
+      <c r="BJ8" s="14">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="BK5" s="14">
-        <f t="shared" si="3"/>
+      <c r="BK8" s="14">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="BL5" s="14">
-        <f t="shared" si="3"/>
+      <c r="BL8" s="14">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="BM5" s="14">
-        <f t="shared" si="3"/>
+      <c r="BM8" s="14">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="BN5" s="14">
-        <f t="shared" si="3"/>
+      <c r="BN8" s="14">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="BO5" s="14">
-        <f t="shared" si="3"/>
+      <c r="BO8" s="14">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BP5" s="14">
-        <f t="shared" si="3"/>
+      <c r="BP8" s="14">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="BQ5" s="14">
-        <f t="shared" si="3"/>
+      <c r="BQ8" s="14">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BR5" s="14">
-        <f t="shared" si="3"/>
+      <c r="BR8" s="14">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="BS5" s="14">
-        <f t="shared" si="3"/>
+      <c r="BS8" s="14">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="BT5" s="14">
-        <f t="shared" si="3"/>
+      <c r="BT8" s="14">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="BU5" s="14">
-        <f t="shared" si="3"/>
+      <c r="BU8" s="14">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="BV5" s="14">
-        <f t="shared" si="3"/>
+      <c r="BV8" s="14">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="BW5" s="13" t="s">
+      <c r="BW8" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="BX5" s="14">
-        <f t="shared" si="3"/>
+      <c r="BX8" s="14">
+        <f>COUNTIF(BX12:BX130,"da")</f>
         <v>3</v>
       </c>
-      <c r="BY5" s="14">
-        <f t="shared" si="3"/>
+      <c r="BY8" s="14">
+        <f>COUNTIF(BY12:BY130,"da")</f>
         <v>2</v>
       </c>
-      <c r="BZ5" s="14">
-        <f t="shared" si="3"/>
+      <c r="BZ8" s="14">
+        <f>COUNTIF(BZ12:BZ130,"da")</f>
         <v>5</v>
       </c>
-      <c r="CA5" s="14">
-        <f t="shared" si="3"/>
+      <c r="CA8" s="14">
+        <f>COUNTIF(CA12:CA130,"da")</f>
         <v>5</v>
       </c>
-      <c r="CB5" s="14">
-        <f t="shared" si="3"/>
+      <c r="CB8" s="14">
+        <f>COUNTIF(CB12:CB130,"da")</f>
         <v>1</v>
       </c>
-      <c r="CC5" s="13" t="s">
+      <c r="CC8" s="13" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F9" s="14">
         <v>3</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G9" s="14">
         <v>5</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H9" s="14">
         <v>6</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I9" s="14">
         <v>10</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J9" s="14">
         <v>7</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K9" s="14">
         <v>7</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L9" s="14">
         <v>5</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M9" s="14">
         <v>4</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N9" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O9" s="14">
         <v>4</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P9" s="14">
         <v>11</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q9" s="14">
         <v>7</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R9" s="14">
         <v>10</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S9" s="14">
         <v>9</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T9" s="14">
         <v>7</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U9" s="14">
         <v>6</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V9" s="14">
         <v>6</v>
       </c>
-      <c r="W6" s="14">
+      <c r="W9" s="14">
         <v>7</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X9" s="14">
         <v>6</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y9" s="14">
         <v>4</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="Z9" s="14">
         <v>3</v>
       </c>
-      <c r="AA6" s="14">
+      <c r="AA9" s="14">
         <v>7</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AB9" s="14">
         <v>4</v>
       </c>
-      <c r="AC6" s="13" t="s">
+      <c r="AC9" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="AD6" s="13" t="s">
+      <c r="AD9" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="AE6" s="13" t="s">
+      <c r="AE9" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="AF6" s="13" t="s">
+      <c r="AF9" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="AG6" s="13" t="s">
+      <c r="AG9" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="AH6" s="14">
+      <c r="AH9" s="14">
         <v>2</v>
       </c>
-      <c r="AI6" s="14">
+      <c r="AI9" s="14">
         <v>8</v>
       </c>
-      <c r="AJ6" s="14">
+      <c r="AJ9" s="14">
         <v>2</v>
       </c>
-      <c r="AK6" s="14">
+      <c r="AK9" s="14">
         <v>5</v>
       </c>
-      <c r="AL6" s="14">
+      <c r="AL9" s="14">
         <v>7</v>
       </c>
-      <c r="AM6" s="14">
+      <c r="AM9" s="14">
         <v>6</v>
       </c>
-      <c r="AN6" s="14">
+      <c r="AN9" s="14">
         <v>6</v>
       </c>
-      <c r="AO6" s="14">
+      <c r="AO9" s="14">
         <v>2</v>
       </c>
-      <c r="AP6" s="14">
+      <c r="AP9" s="14">
         <v>7</v>
       </c>
-      <c r="AQ6" s="14">
+      <c r="AQ9" s="14">
         <v>5</v>
       </c>
-      <c r="AR6" s="14">
+      <c r="AR9" s="14">
         <v>4</v>
       </c>
-      <c r="AS6" s="14">
+      <c r="AS9" s="14">
         <v>3</v>
       </c>
-      <c r="AT6" s="13" t="s">
+      <c r="AT9" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="AU6" s="13" t="s">
+      <c r="AU9" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="AV6" s="14">
+      <c r="AV9" s="14">
         <v>3</v>
       </c>
-      <c r="AW6" s="14">
+      <c r="AW9" s="14">
         <v>0</v>
       </c>
-      <c r="AX6" s="14">
+      <c r="AX9" s="14">
         <v>1</v>
       </c>
-      <c r="AY6" s="14">
+      <c r="AY9" s="14">
         <v>2</v>
       </c>
-      <c r="AZ6" s="14">
+      <c r="AZ9" s="14">
         <v>6</v>
       </c>
-      <c r="BA6" s="14">
+      <c r="BA9" s="14">
         <v>2</v>
       </c>
-      <c r="BB6" s="14">
+      <c r="BB9" s="14">
         <v>3</v>
       </c>
-      <c r="BC6" s="14">
+      <c r="BC9" s="14">
         <v>5</v>
       </c>
-      <c r="BD6" s="14">
+      <c r="BD9" s="14">
         <v>3</v>
       </c>
-      <c r="BE6" s="13" t="s">
+      <c r="BE9" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="BF6" s="13" t="s">
+      <c r="BF9" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="BG6" s="13" t="s">
+      <c r="BG9" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="BH6">
+      <c r="BH9">
         <v>5</v>
       </c>
-      <c r="BI6">
+      <c r="BI9">
         <v>5</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ9">
         <v>8</v>
       </c>
-      <c r="BK6">
+      <c r="BK9">
         <v>6</v>
       </c>
-      <c r="BL6">
+      <c r="BL9">
         <v>4</v>
       </c>
-      <c r="BM6">
+      <c r="BM9">
         <v>4</v>
       </c>
-      <c r="BN6">
+      <c r="BN9">
         <v>5</v>
       </c>
-      <c r="BO6">
+      <c r="BO9">
         <v>0</v>
       </c>
-      <c r="BP6">
+      <c r="BP9">
         <v>5</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ9">
         <v>0</v>
       </c>
-      <c r="BR6">
+      <c r="BR9">
         <v>7</v>
       </c>
-      <c r="BS6">
+      <c r="BS9">
         <v>3</v>
       </c>
-      <c r="BT6">
+      <c r="BT9">
         <v>4</v>
       </c>
-      <c r="BU6">
+      <c r="BU9">
         <v>4</v>
       </c>
-      <c r="BV6">
+      <c r="BV9">
         <v>5</v>
       </c>
-      <c r="BW6" s="13" t="s">
+      <c r="BW9" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="BX6">
+      <c r="BX9">
         <v>3</v>
       </c>
-      <c r="BY6">
+      <c r="BY9">
         <v>3</v>
       </c>
-      <c r="BZ6">
+      <c r="BZ9">
         <v>5</v>
       </c>
-      <c r="CA6">
+      <c r="CA9">
         <v>2</v>
       </c>
-      <c r="CB6">
+      <c r="CB9">
         <v>1</v>
       </c>
-      <c r="CC6" s="13" t="s">
+      <c r="CC9" s="13" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f>SUM(E9:E37)</f>
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>SUM(E12:E40)</f>
         <v>139</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B10" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="14"/>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="14"/>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="14"/>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="14"/>
-      <c r="BA7" s="14"/>
-      <c r="BB7" s="14"/>
-      <c r="BC7" s="14"/>
-      <c r="BD7" s="14"/>
-      <c r="BE7" s="14"/>
-      <c r="BF7" s="14"/>
-      <c r="BG7" s="14"/>
-      <c r="BH7" s="14"/>
-      <c r="BI7" s="14"/>
-      <c r="BJ7" s="14"/>
-      <c r="BK7" s="14"/>
-      <c r="BL7" s="14"/>
-      <c r="BM7" s="14"/>
-      <c r="BN7" s="14"/>
-      <c r="BO7" s="14"/>
-      <c r="BP7" s="14"/>
-      <c r="BQ7" s="14"/>
-      <c r="BR7" s="15"/>
-      <c r="BS7" s="15"/>
-      <c r="BT7" s="15"/>
-      <c r="BU7" s="15"/>
-      <c r="BV7" s="15"/>
-      <c r="BW7" s="15"/>
-      <c r="BX7" s="15"/>
-      <c r="BY7" s="15"/>
-      <c r="BZ7" s="15"/>
-      <c r="CA7" s="15"/>
-      <c r="CB7" s="15"/>
-      <c r="CC7" s="15"/>
-      <c r="CD7" s="15"/>
-      <c r="CE7" s="15"/>
-      <c r="CF7" s="15"/>
-      <c r="CG7" s="15"/>
-      <c r="CH7" s="15"/>
-      <c r="CI7" s="15"/>
-      <c r="CJ7" s="15"/>
-      <c r="CK7" s="15"/>
-    </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="14"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="14"/>
-      <c r="AZ8" s="14"/>
-      <c r="BA8" s="14"/>
-      <c r="BB8" s="14"/>
-      <c r="BC8" s="14"/>
-      <c r="BD8" s="14"/>
-      <c r="BE8" s="14"/>
-      <c r="BF8" s="14"/>
-      <c r="BG8" s="14"/>
-      <c r="BH8" s="14"/>
-      <c r="BI8" s="14"/>
-      <c r="BJ8" s="14"/>
-      <c r="BK8" s="14"/>
-      <c r="BL8" s="14"/>
-      <c r="BM8" s="14"/>
-      <c r="BN8" s="14"/>
-      <c r="BO8" s="14"/>
-      <c r="BP8" s="14"/>
-      <c r="BQ8" s="14"/>
-      <c r="BR8" s="15"/>
-      <c r="BS8" s="15"/>
-      <c r="BT8" s="15"/>
-      <c r="BU8" s="15"/>
-      <c r="BV8" s="15"/>
-      <c r="BW8" s="15"/>
-      <c r="BX8" s="15"/>
-      <c r="BY8" s="15"/>
-      <c r="BZ8" s="15"/>
-      <c r="CA8" s="15"/>
-      <c r="CB8" s="15"/>
-      <c r="CC8" s="15"/>
-      <c r="CD8" s="15"/>
-      <c r="CE8" s="15"/>
-      <c r="CF8" s="15"/>
-      <c r="CG8" s="15"/>
-      <c r="CH8" s="15"/>
-      <c r="CI8" s="15"/>
-      <c r="CJ8" s="15"/>
-      <c r="CK8" s="15"/>
-    </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" s="14">
-        <f>COUNTIF(F9:ZZ9,"da")</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="14"/>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="14"/>
-      <c r="BB9" s="14"/>
-      <c r="BC9" s="14"/>
-      <c r="BD9" s="14"/>
-      <c r="BE9" s="14"/>
-      <c r="BF9" s="14"/>
-      <c r="BG9" s="14"/>
-      <c r="BH9" s="14"/>
-      <c r="BI9" s="14"/>
-      <c r="BJ9" s="14"/>
-      <c r="BK9" s="14"/>
-      <c r="BL9" s="14"/>
-      <c r="BM9" s="14"/>
-      <c r="BN9" s="14"/>
-      <c r="BO9" s="14"/>
-      <c r="BP9" s="14"/>
-      <c r="BQ9" s="14"/>
-      <c r="BR9" s="15"/>
-      <c r="BS9" s="15"/>
-      <c r="BT9" s="15"/>
-      <c r="BU9" s="15"/>
-      <c r="BV9" s="15"/>
-      <c r="BW9" s="15"/>
-      <c r="BX9" s="15"/>
-      <c r="BY9" s="15"/>
-      <c r="BZ9" s="15"/>
-      <c r="CA9" s="15"/>
-      <c r="CB9" s="15"/>
-      <c r="CC9" s="15"/>
-      <c r="CD9" s="15"/>
-      <c r="CE9" s="15"/>
-      <c r="CF9" s="15"/>
-      <c r="CG9" s="15"/>
-      <c r="CH9" s="15"/>
-      <c r="CI9" s="15"/>
-      <c r="CJ9" s="15"/>
-      <c r="CK9" s="15"/>
-    </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="E10" s="14"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -5590,56 +5322,27 @@
       <c r="CK10" s="15"/>
     </row>
     <row r="11" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="E11" s="14">
-        <f t="shared" ref="E11:E18" si="4">COUNTIF(F11:ZZ11,"da")</f>
-        <v>15</v>
-      </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="I11" s="14"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
-      <c r="O11" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="O11" s="14"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
-      <c r="S11" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="S11" s="14"/>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
-      <c r="V11" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="W11" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
-      <c r="Z11" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
@@ -5648,17 +5351,11 @@
       <c r="AF11" s="14"/>
       <c r="AG11" s="14"/>
       <c r="AH11" s="14"/>
-      <c r="AI11" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AI11" s="14"/>
       <c r="AJ11" s="14"/>
-      <c r="AK11" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AK11" s="14"/>
       <c r="AL11" s="14"/>
-      <c r="AM11" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AM11" s="14"/>
       <c r="AN11" s="14"/>
       <c r="AO11" s="15"/>
       <c r="AP11" s="14"/>
@@ -5674,9 +5371,7 @@
       <c r="AZ11" s="14"/>
       <c r="BA11" s="14"/>
       <c r="BB11" s="14"/>
-      <c r="BC11" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BC11" s="14"/>
       <c r="BD11" s="14"/>
       <c r="BE11" s="14"/>
       <c r="BF11" s="14"/>
@@ -5686,9 +5381,7 @@
       <c r="BJ11" s="14"/>
       <c r="BK11" s="14"/>
       <c r="BL11" s="14"/>
-      <c r="BM11" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BM11" s="14"/>
       <c r="BN11" s="14"/>
       <c r="BO11" s="14"/>
       <c r="BP11" s="14"/>
@@ -5696,9 +5389,7 @@
       <c r="BR11" s="15"/>
       <c r="BS11" s="15"/>
       <c r="BT11" s="15"/>
-      <c r="BU11" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BU11" s="15"/>
       <c r="BV11" s="15"/>
       <c r="BW11" s="15"/>
       <c r="BX11" s="15"/>
@@ -5717,53 +5408,38 @@
       <c r="CK11" s="15"/>
     </row>
     <row r="12" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
-        <v>201</v>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>199</v>
       </c>
       <c r="E12" s="14">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f>COUNTIF(F12:ZZ12,"da")</f>
+        <v>0</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="G12" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="I12" s="14"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
-      <c r="O12" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="O12" s="14"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
-      <c r="S12" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="S12" s="14"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="U12" s="14"/>
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
-      <c r="Y12" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
-      <c r="AA12" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AA12" s="14"/>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
@@ -5771,21 +5447,15 @@
       <c r="AF12" s="14"/>
       <c r="AG12" s="14"/>
       <c r="AH12" s="14"/>
-      <c r="AI12" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AI12" s="14"/>
       <c r="AJ12" s="14"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="14"/>
       <c r="AM12" s="14"/>
       <c r="AN12" s="14"/>
-      <c r="AO12" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="AO12" s="15"/>
       <c r="AP12" s="14"/>
-      <c r="AQ12" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AQ12" s="14"/>
       <c r="AR12" s="14"/>
       <c r="AS12" s="14"/>
       <c r="AT12" s="14"/>
@@ -5794,9 +5464,7 @@
       <c r="AW12" s="14"/>
       <c r="AX12" s="14"/>
       <c r="AY12" s="14"/>
-      <c r="AZ12" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AZ12" s="14"/>
       <c r="BA12" s="14"/>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -5805,41 +5473,25 @@
       <c r="BF12" s="14"/>
       <c r="BG12" s="14"/>
       <c r="BH12" s="14"/>
-      <c r="BI12" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ12" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK12" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BI12" s="14"/>
+      <c r="BJ12" s="14"/>
+      <c r="BK12" s="14"/>
       <c r="BL12" s="14"/>
-      <c r="BM12" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BN12" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BM12" s="14"/>
+      <c r="BN12" s="14"/>
       <c r="BO12" s="14"/>
       <c r="BP12" s="14"/>
       <c r="BQ12" s="14"/>
       <c r="BR12" s="15"/>
-      <c r="BS12" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BS12" s="15"/>
       <c r="BT12" s="15"/>
       <c r="BU12" s="15"/>
       <c r="BV12" s="15"/>
       <c r="BW12" s="15"/>
       <c r="BX12" s="15"/>
-      <c r="BY12" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BY12" s="15"/>
       <c r="BZ12" s="15"/>
-      <c r="CA12" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="CA12" s="15"/>
       <c r="CB12" s="15"/>
       <c r="CC12" s="15"/>
       <c r="CD12" s="15"/>
@@ -5852,15 +5504,7 @@
       <c r="CK12" s="15"/>
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -5947,36 +5591,56 @@
       <c r="CK13" s="15"/>
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
+      <c r="B14" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="10" t="s">
-        <v>203</v>
+      <c r="D14" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="E14" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="E14:E21" si="5">COUNTIF(F14:ZZ14,"da")</f>
+        <v>15</v>
       </c>
       <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="I14" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="K14" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
+      <c r="O14" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
+      <c r="Q14" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
+      <c r="S14" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
+      <c r="V14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
+      <c r="Z14" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AA14" s="14"/>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
@@ -5985,11 +5649,17 @@
       <c r="AF14" s="14"/>
       <c r="AG14" s="14"/>
       <c r="AH14" s="14"/>
-      <c r="AI14" s="14"/>
+      <c r="AI14" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AJ14" s="14"/>
-      <c r="AK14" s="14"/>
+      <c r="AK14" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AL14" s="14"/>
-      <c r="AM14" s="14"/>
+      <c r="AM14" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AN14" s="14"/>
       <c r="AO14" s="15"/>
       <c r="AP14" s="14"/>
@@ -6005,7 +5675,9 @@
       <c r="AZ14" s="14"/>
       <c r="BA14" s="14"/>
       <c r="BB14" s="14"/>
-      <c r="BC14" s="14"/>
+      <c r="BC14" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BD14" s="14"/>
       <c r="BE14" s="14"/>
       <c r="BF14" s="14"/>
@@ -6015,7 +5687,9 @@
       <c r="BJ14" s="14"/>
       <c r="BK14" s="14"/>
       <c r="BL14" s="14"/>
-      <c r="BM14" s="14"/>
+      <c r="BM14" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BN14" s="14"/>
       <c r="BO14" s="14"/>
       <c r="BP14" s="14"/>
@@ -6023,7 +5697,9 @@
       <c r="BR14" s="15"/>
       <c r="BS14" s="15"/>
       <c r="BT14" s="15"/>
-      <c r="BU14" s="15"/>
+      <c r="BU14" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="BV14" s="15"/>
       <c r="BW14" s="15"/>
       <c r="BX14" s="15"/>
@@ -6044,51 +5720,51 @@
     <row r="15" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="18" t="s">
-        <v>204</v>
+      <c r="D15" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="E15" s="14">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="14"/>
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="J15" s="14"/>
       <c r="K15" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="L15" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
       <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
+      <c r="O15" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
+      <c r="S15" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="W15" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="U15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
       <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
+      <c r="Y15" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
+      <c r="AA15" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
       <c r="AD15" s="14"/>
@@ -6100,17 +5776,17 @@
         <v>89</v>
       </c>
       <c r="AJ15" s="14"/>
-      <c r="AK15" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AK15" s="14"/>
       <c r="AL15" s="14"/>
       <c r="AM15" s="14"/>
-      <c r="AN15" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO15" s="15"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
+      <c r="AQ15" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AR15" s="14"/>
       <c r="AS15" s="14"/>
       <c r="AT15" s="14"/>
@@ -6119,7 +5795,9 @@
       <c r="AW15" s="14"/>
       <c r="AX15" s="14"/>
       <c r="AY15" s="14"/>
-      <c r="AZ15" s="14"/>
+      <c r="AZ15" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BA15" s="14"/>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -6131,26 +5809,38 @@
       <c r="BI15" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="BJ15" s="14"/>
-      <c r="BK15" s="14"/>
+      <c r="BJ15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK15" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BL15" s="14"/>
-      <c r="BM15" s="14"/>
-      <c r="BN15" s="14"/>
+      <c r="BM15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN15" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BO15" s="14"/>
-      <c r="BP15" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BP15" s="14"/>
       <c r="BQ15" s="14"/>
       <c r="BR15" s="15"/>
-      <c r="BS15" s="15"/>
+      <c r="BS15" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="BT15" s="15"/>
       <c r="BU15" s="15"/>
       <c r="BV15" s="15"/>
       <c r="BW15" s="15"/>
       <c r="BX15" s="15"/>
-      <c r="BY15" s="15"/>
+      <c r="BY15" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="BZ15" s="15"/>
-      <c r="CA15" s="15"/>
+      <c r="CA15" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="CB15" s="15"/>
       <c r="CC15" s="15"/>
       <c r="CD15" s="15"/>
@@ -6165,25 +5855,19 @@
     <row r="16" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="18" t="s">
-        <v>205</v>
+      <c r="D16" s="17" t="s">
+        <v>202</v>
       </c>
       <c r="E16" s="14">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>89</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
@@ -6191,26 +5875,16 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
-      <c r="S16" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="T16" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
-      <c r="W16" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="X16" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
-      <c r="AB16" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
@@ -6223,12 +5897,8 @@
       <c r="AL16" s="14"/>
       <c r="AM16" s="14"/>
       <c r="AN16" s="14"/>
-      <c r="AO16" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP16" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="14"/>
       <c r="AQ16" s="14"/>
       <c r="AR16" s="14"/>
       <c r="AS16" s="14"/>
@@ -6242,18 +5912,12 @@
       <c r="BA16" s="14"/>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
-      <c r="BD16" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BD16" s="14"/>
       <c r="BE16" s="14"/>
       <c r="BF16" s="14"/>
       <c r="BG16" s="14"/>
-      <c r="BH16" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI16" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BH16" s="14"/>
+      <c r="BI16" s="14"/>
       <c r="BJ16" s="14"/>
       <c r="BK16" s="14"/>
       <c r="BL16" s="14"/>
@@ -6266,17 +5930,13 @@
       <c r="BS16" s="15"/>
       <c r="BT16" s="15"/>
       <c r="BU16" s="15"/>
-      <c r="BV16" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BV16" s="15"/>
       <c r="BW16" s="15"/>
       <c r="BX16" s="15"/>
       <c r="BY16" s="15"/>
       <c r="BZ16" s="15"/>
       <c r="CA16" s="15"/>
-      <c r="CB16" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="CB16" s="15"/>
       <c r="CC16" s="15"/>
       <c r="CD16" s="15"/>
       <c r="CE16" s="15"/>
@@ -6290,54 +5950,34 @@
     <row r="17" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
-        <v>108</v>
+      <c r="D17" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="E17" s="14">
-        <f t="shared" si="4"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
-      <c r="R17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="T17" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
       <c r="U17" s="14"/>
-      <c r="V17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
       <c r="X17" s="14"/>
-      <c r="Y17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z17" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
@@ -6348,40 +5988,24 @@
       <c r="AH17" s="14"/>
       <c r="AI17" s="14"/>
       <c r="AJ17" s="14"/>
-      <c r="AK17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM17" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
       <c r="AN17" s="14"/>
-      <c r="AO17" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="AO17" s="15"/>
       <c r="AP17" s="14"/>
       <c r="AQ17" s="14"/>
-      <c r="AR17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS17" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
       <c r="AT17" s="14"/>
       <c r="AU17" s="14"/>
-      <c r="AV17" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AV17" s="14"/>
       <c r="AW17" s="14"/>
       <c r="AX17" s="14"/>
       <c r="AY17" s="14"/>
       <c r="AZ17" s="14"/>
       <c r="BA17" s="14"/>
-      <c r="BB17" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
       <c r="BD17" s="14"/>
       <c r="BE17" s="14"/>
@@ -6389,14 +6013,10 @@
       <c r="BG17" s="14"/>
       <c r="BH17" s="14"/>
       <c r="BI17" s="14"/>
-      <c r="BJ17" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BJ17" s="14"/>
       <c r="BK17" s="14"/>
       <c r="BL17" s="14"/>
-      <c r="BM17" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BM17" s="14"/>
       <c r="BN17" s="14"/>
       <c r="BO17" s="14"/>
       <c r="BP17" s="14"/>
@@ -6404,9 +6024,7 @@
       <c r="BR17" s="15"/>
       <c r="BS17" s="15"/>
       <c r="BT17" s="15"/>
-      <c r="BU17" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BU17" s="15"/>
       <c r="BV17" s="15"/>
       <c r="BW17" s="15"/>
       <c r="BX17" s="15"/>
@@ -6427,66 +6045,70 @@
     <row r="18" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="17" t="s">
-        <v>206</v>
+      <c r="D18" s="18" t="s">
+        <v>204</v>
       </c>
       <c r="E18" s="14">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>89</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="I18" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="J18" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
+      <c r="K18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="M18" s="14" t="s">
         <v>89</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
-      <c r="P18" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
-      <c r="R18" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="R18" s="14"/>
       <c r="S18" s="14"/>
-      <c r="T18" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="W18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="X18" s="14"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
-      <c r="AB18" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
       <c r="AD18" s="14"/>
       <c r="AE18" s="14"/>
       <c r="AF18" s="14"/>
       <c r="AG18" s="14"/>
       <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
+      <c r="AI18" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
+      <c r="AK18" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AL18" s="14"/>
       <c r="AM18" s="14"/>
-      <c r="AN18" s="14"/>
+      <c r="AN18" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AO18" s="15"/>
       <c r="AP18" s="14"/>
       <c r="AQ18" s="14"/>
@@ -6502,25 +6124,17 @@
       <c r="BA18" s="14"/>
       <c r="BB18" s="14"/>
       <c r="BC18" s="14"/>
-      <c r="BD18" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BD18" s="14"/>
       <c r="BE18" s="14"/>
       <c r="BF18" s="14"/>
       <c r="BG18" s="14"/>
-      <c r="BH18" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BH18" s="14"/>
       <c r="BI18" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="BJ18" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BJ18" s="14"/>
       <c r="BK18" s="14"/>
-      <c r="BL18" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BL18" s="14"/>
       <c r="BM18" s="14"/>
       <c r="BN18" s="14"/>
       <c r="BO18" s="14"/>
@@ -6528,17 +6142,11 @@
         <v>89</v>
       </c>
       <c r="BQ18" s="14"/>
-      <c r="BR18" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BR18" s="15"/>
       <c r="BS18" s="15"/>
-      <c r="BT18" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BT18" s="15"/>
       <c r="BU18" s="15"/>
-      <c r="BV18" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BV18" s="15"/>
       <c r="BW18" s="15"/>
       <c r="BX18" s="15"/>
       <c r="BY18" s="15"/>
@@ -6558,14 +6166,25 @@
     <row r="19" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="D19" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="J19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
@@ -6573,16 +6192,26 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
+      <c r="S19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="U19" s="14"/>
       <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
+      <c r="W19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="X19" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
+      <c r="AB19" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
       <c r="AE19" s="14"/>
@@ -6595,8 +6224,12 @@
       <c r="AL19" s="14"/>
       <c r="AM19" s="14"/>
       <c r="AN19" s="14"/>
-      <c r="AO19" s="15"/>
-      <c r="AP19" s="14"/>
+      <c r="AO19" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP19" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AQ19" s="14"/>
       <c r="AR19" s="14"/>
       <c r="AS19" s="14"/>
@@ -6610,12 +6243,18 @@
       <c r="BA19" s="14"/>
       <c r="BB19" s="14"/>
       <c r="BC19" s="14"/>
-      <c r="BD19" s="14"/>
+      <c r="BD19" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BE19" s="14"/>
       <c r="BF19" s="14"/>
       <c r="BG19" s="14"/>
-      <c r="BH19" s="14"/>
-      <c r="BI19" s="14"/>
+      <c r="BH19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI19" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BJ19" s="14"/>
       <c r="BK19" s="14"/>
       <c r="BL19" s="14"/>
@@ -6628,13 +6267,17 @@
       <c r="BS19" s="15"/>
       <c r="BT19" s="15"/>
       <c r="BU19" s="15"/>
-      <c r="BV19" s="15"/>
+      <c r="BV19" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="BW19" s="15"/>
       <c r="BX19" s="15"/>
       <c r="BY19" s="15"/>
       <c r="BZ19" s="15"/>
       <c r="CA19" s="15"/>
-      <c r="CB19" s="15"/>
+      <c r="CB19" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="CC19" s="15"/>
       <c r="CD19" s="15"/>
       <c r="CE19" s="15"/>
@@ -6646,44 +6289,56 @@
       <c r="CK19" s="15"/>
     </row>
     <row r="20" spans="2:89" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
-        <v>113</v>
-      </c>
+      <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="E20" s="14">
-        <f t="shared" ref="E20:E27" si="5">COUNTIF(F20:ZZ20,"da")</f>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="H20" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
-      <c r="O20" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="P20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
+      <c r="R20" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="S20" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="T20" s="14"/>
+      <c r="T20" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="U20" s="14"/>
       <c r="V20" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="W20" s="14"/>
+      <c r="W20" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
+      <c r="Y20" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z20" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AA20" s="14"/>
       <c r="AB20" s="14"/>
       <c r="AC20" s="14"/>
@@ -6694,26 +6349,40 @@
       <c r="AH20" s="14"/>
       <c r="AI20" s="14"/>
       <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
+      <c r="AK20" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AL20" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="AM20" s="14"/>
+      <c r="AM20" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AN20" s="14"/>
-      <c r="AO20" s="15"/>
+      <c r="AO20" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="AP20" s="14"/>
       <c r="AQ20" s="14"/>
-      <c r="AR20" s="14"/>
-      <c r="AS20" s="14"/>
+      <c r="AR20" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS20" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AT20" s="14"/>
       <c r="AU20" s="14"/>
-      <c r="AV20" s="14"/>
+      <c r="AV20" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AW20" s="14"/>
       <c r="AX20" s="14"/>
       <c r="AY20" s="14"/>
       <c r="AZ20" s="14"/>
       <c r="BA20" s="14"/>
-      <c r="BB20" s="14"/>
+      <c r="BB20" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BC20" s="14"/>
       <c r="BD20" s="14"/>
       <c r="BE20" s="14"/>
@@ -6721,10 +6390,14 @@
       <c r="BG20" s="14"/>
       <c r="BH20" s="14"/>
       <c r="BI20" s="14"/>
-      <c r="BJ20" s="14"/>
+      <c r="BJ20" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BK20" s="14"/>
       <c r="BL20" s="14"/>
-      <c r="BM20" s="14"/>
+      <c r="BM20" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BN20" s="14"/>
       <c r="BO20" s="14"/>
       <c r="BP20" s="14"/>
@@ -6732,16 +6405,14 @@
       <c r="BR20" s="15"/>
       <c r="BS20" s="15"/>
       <c r="BT20" s="15"/>
-      <c r="BU20" s="15"/>
-      <c r="BV20" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BU20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BV20" s="15"/>
       <c r="BW20" s="15"/>
       <c r="BX20" s="15"/>
       <c r="BY20" s="15"/>
-      <c r="BZ20" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BZ20" s="15"/>
       <c r="CA20" s="15"/>
       <c r="CB20" s="15"/>
       <c r="CC20" s="15"/>
@@ -6758,35 +6429,53 @@
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E21" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="J21" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+      <c r="M21" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
+      <c r="P21" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
+      <c r="R21" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
+      <c r="T21" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
+      <c r="V21" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
+      <c r="X21" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
+      <c r="AB21" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AC21" s="14"/>
       <c r="AD21" s="14"/>
       <c r="AE21" s="14"/>
@@ -6814,25 +6503,43 @@
       <c r="BA21" s="14"/>
       <c r="BB21" s="14"/>
       <c r="BC21" s="14"/>
-      <c r="BD21" s="14"/>
+      <c r="BD21" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BE21" s="14"/>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
-      <c r="BH21" s="14"/>
-      <c r="BI21" s="14"/>
-      <c r="BJ21" s="14"/>
+      <c r="BH21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ21" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BK21" s="14"/>
-      <c r="BL21" s="14"/>
+      <c r="BL21" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BM21" s="14"/>
       <c r="BN21" s="14"/>
       <c r="BO21" s="14"/>
-      <c r="BP21" s="14"/>
+      <c r="BP21" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BQ21" s="14"/>
-      <c r="BR21" s="15"/>
+      <c r="BR21" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="BS21" s="15"/>
-      <c r="BT21" s="15"/>
+      <c r="BT21" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="BU21" s="15"/>
-      <c r="BV21" s="15"/>
+      <c r="BV21" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="BW21" s="15"/>
       <c r="BX21" s="15"/>
       <c r="BY21" s="15"/>
@@ -6852,13 +6559,8 @@
     <row r="22" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="14">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -6927,20 +6629,12 @@
       <c r="BS22" s="15"/>
       <c r="BT22" s="15"/>
       <c r="BU22" s="15"/>
-      <c r="BV22" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BV22" s="15"/>
       <c r="BW22" s="15"/>
       <c r="BX22" s="15"/>
-      <c r="BY22" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="BZ22" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="CA22" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BY22" s="15"/>
+      <c r="BZ22" s="15"/>
+      <c r="CA22" s="15"/>
       <c r="CB22" s="15"/>
       <c r="CC22" s="15"/>
       <c r="CD22" s="15"/>
@@ -6953,34 +6647,40 @@
       <c r="CK22" s="15"/>
     </row>
     <row r="23" spans="2:89" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
+      <c r="B23" s="17" t="s">
+        <v>113</v>
+      </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E23" s="14">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" ref="E23:E30" si="6">COUNTIF(F23:ZZ23,"da")</f>
+        <v>6</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
+      <c r="O23" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
+      <c r="S23" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
+      <c r="V23" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
@@ -6996,7 +6696,9 @@
       <c r="AI23" s="14"/>
       <c r="AJ23" s="14"/>
       <c r="AK23" s="14"/>
-      <c r="AL23" s="14"/>
+      <c r="AL23" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AM23" s="14"/>
       <c r="AN23" s="14"/>
       <c r="AO23" s="15"/>
@@ -7032,11 +6734,15 @@
       <c r="BS23" s="15"/>
       <c r="BT23" s="15"/>
       <c r="BU23" s="15"/>
-      <c r="BV23" s="15"/>
+      <c r="BV23" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="BW23" s="15"/>
       <c r="BX23" s="15"/>
       <c r="BY23" s="15"/>
-      <c r="BZ23" s="15"/>
+      <c r="BZ23" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="CA23" s="15"/>
       <c r="CB23" s="15"/>
       <c r="CC23" s="15"/>
@@ -7053,10 +6759,10 @@
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E24" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F24" s="14"/>
@@ -7147,12 +6853,12 @@
     <row r="25" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="9" t="s">
-        <v>212</v>
+      <c r="D25" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="E25" s="14">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -7167,9 +6873,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
-      <c r="S25" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="S25" s="14"/>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
       <c r="V25" s="14"/>
@@ -7213,9 +6917,7 @@
       <c r="BH25" s="14"/>
       <c r="BI25" s="14"/>
       <c r="BJ25" s="14"/>
-      <c r="BK25" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BK25" s="14"/>
       <c r="BL25" s="14"/>
       <c r="BM25" s="14"/>
       <c r="BN25" s="14"/>
@@ -7226,12 +6928,20 @@
       <c r="BS25" s="15"/>
       <c r="BT25" s="15"/>
       <c r="BU25" s="15"/>
-      <c r="BV25" s="15"/>
+      <c r="BV25" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="BW25" s="15"/>
       <c r="BX25" s="15"/>
-      <c r="BY25" s="15"/>
-      <c r="BZ25" s="15"/>
-      <c r="CA25" s="15"/>
+      <c r="BY25" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BZ25" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CA25" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="CB25" s="15"/>
       <c r="CC25" s="15"/>
       <c r="CD25" s="15"/>
@@ -7246,16 +6956,18 @@
     <row r="26" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="9" t="s">
-        <v>213</v>
+      <c r="D26" s="17" t="s">
+        <v>210</v>
       </c>
       <c r="E26" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="H26" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
@@ -7341,11 +7053,11 @@
     <row r="27" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="9" t="s">
-        <v>214</v>
+      <c r="D27" s="17" t="s">
+        <v>211</v>
       </c>
       <c r="E27" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F27" s="14"/>
@@ -7436,8 +7148,13 @@
     <row r="28" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="14"/>
+      <c r="D28" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="14">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -7451,7 +7168,9 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
+      <c r="S28" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
@@ -7495,7 +7214,9 @@
       <c r="BH28" s="14"/>
       <c r="BI28" s="14"/>
       <c r="BJ28" s="14"/>
-      <c r="BK28" s="14"/>
+      <c r="BK28" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BL28" s="14"/>
       <c r="BM28" s="14"/>
       <c r="BN28" s="14"/>
@@ -7524,51 +7245,37 @@
       <c r="CK28" s="15"/>
     </row>
     <row r="29" spans="2:89" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
-        <v>126</v>
-      </c>
+      <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="17" t="s">
-        <v>215</v>
+      <c r="D29" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="E29" s="14">
-        <f t="shared" ref="E29:E37" si="6">COUNTIF(F29:ZZ29,"da")</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
-      <c r="I29" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="I29" s="14"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="K29" s="14"/>
       <c r="L29" s="14"/>
-      <c r="M29" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
-      <c r="Q29" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
       <c r="V29" s="14"/>
-      <c r="W29" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="W29" s="14"/>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
-      <c r="AA29" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AA29" s="14"/>
       <c r="AB29" s="14"/>
       <c r="AC29" s="14"/>
       <c r="AD29" s="14"/>
@@ -7635,8 +7342,8 @@
     <row r="30" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="17" t="s">
-        <v>216</v>
+      <c r="D30" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="E30" s="14">
         <f t="shared" si="6"/>
@@ -7730,13 +7437,8 @@
     <row r="31" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="E31" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
@@ -7747,21 +7449,13 @@
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
-      <c r="P31" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
-      <c r="R31" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="R31" s="14"/>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
-      <c r="U31" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="V31" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
@@ -7831,27 +7525,31 @@
       <c r="CK31" s="15"/>
     </row>
     <row r="32" spans="2:89" x14ac:dyDescent="0.25">
-      <c r="B32" s="17"/>
+      <c r="B32" s="17" t="s">
+        <v>126</v>
+      </c>
       <c r="C32" s="17"/>
-      <c r="D32" s="18" t="s">
-        <v>218</v>
+      <c r="D32" s="17" t="s">
+        <v>215</v>
       </c>
       <c r="E32" s="14">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" ref="E32:E40" si="7">COUNTIF(F32:ZZ32,"da")</f>
+        <v>6</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="I32" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" s="14"/>
       <c r="K32" s="14" t="s">
         <v>89</v>
       </c>
       <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
+      <c r="M32" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
@@ -7863,7 +7561,9 @@
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
       <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
+      <c r="W32" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="X32" s="14"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
@@ -7877,9 +7577,7 @@
       <c r="AF32" s="14"/>
       <c r="AG32" s="14"/>
       <c r="AH32" s="14"/>
-      <c r="AI32" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AI32" s="14"/>
       <c r="AJ32" s="14"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="14"/>
@@ -7938,39 +7636,31 @@
     <row r="33" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="18" t="s">
-        <v>219</v>
+      <c r="D33" s="17" t="s">
+        <v>216</v>
       </c>
       <c r="E33" s="14">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
-      <c r="I33" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
-      <c r="M33" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="M33" s="14"/>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
-      <c r="Q33" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
       <c r="V33" s="14"/>
-      <c r="W33" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="W33" s="14"/>
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
@@ -7985,9 +7675,7 @@
       <c r="AI33" s="14"/>
       <c r="AJ33" s="14"/>
       <c r="AK33" s="14"/>
-      <c r="AL33" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AL33" s="14"/>
       <c r="AM33" s="14"/>
       <c r="AN33" s="14"/>
       <c r="AO33" s="15"/>
@@ -8044,11 +7732,11 @@
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E34" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
@@ -8064,11 +7752,17 @@
         <v>89</v>
       </c>
       <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
+      <c r="R34" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
+      <c r="U34" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="V34" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="W34" s="14"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
@@ -8140,29 +7834,31 @@
     <row r="35" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
-      <c r="D35" s="17" t="s">
-        <v>221</v>
+      <c r="D35" s="18" t="s">
+        <v>218</v>
       </c>
       <c r="E35" s="14">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
+      <c r="J35" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
-      <c r="P35" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
@@ -8172,7 +7868,9 @@
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
-      <c r="AA35" s="14"/>
+      <c r="AA35" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AB35" s="14"/>
       <c r="AC35" s="14"/>
       <c r="AD35" s="14"/>
@@ -8180,7 +7878,9 @@
       <c r="AF35" s="14"/>
       <c r="AG35" s="14"/>
       <c r="AH35" s="14"/>
-      <c r="AI35" s="14"/>
+      <c r="AI35" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AJ35" s="14"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="14"/>
@@ -8239,31 +7939,39 @@
     <row r="36" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="10" t="s">
-        <v>222</v>
+      <c r="D36" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="E36" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
+      <c r="I36" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
+      <c r="M36" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
+      <c r="Q36" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
       <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
+      <c r="W36" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
@@ -8278,7 +7986,9 @@
       <c r="AI36" s="14"/>
       <c r="AJ36" s="14"/>
       <c r="AK36" s="14"/>
-      <c r="AL36" s="14"/>
+      <c r="AL36" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AM36" s="14"/>
       <c r="AN36" s="14"/>
       <c r="AO36" s="15"/>
@@ -8335,10 +8045,10 @@
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E37" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F37" s="14"/>
@@ -8351,11 +8061,11 @@
       <c r="M37" s="14"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
+      <c r="P37" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="Q37" s="14"/>
-      <c r="R37" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="R37" s="14"/>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
@@ -8431,11 +8141,18 @@
     <row r="38" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="14"/>
+      <c r="D38" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E38" s="14">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
+      <c r="H38" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
@@ -8443,7 +8160,9 @@
       <c r="M38" s="14"/>
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
+      <c r="P38" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
@@ -8521,8 +8240,13 @@
     <row r="39" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="14"/>
+      <c r="D39" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
@@ -8611,8 +8335,13 @@
     <row r="40" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="14"/>
+      <c r="D40" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" s="14">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
@@ -8625,7 +8354,9 @@
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
+      <c r="R40" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
       <c r="U40" s="14"/>
@@ -8699,15 +8430,9 @@
       <c r="CK40" s="15"/>
     </row>
     <row r="41" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f>SUM(E43)</f>
-        <v>0</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
@@ -8885,17 +8610,10 @@
       <c r="CK42" s="15"/>
     </row>
     <row r="43" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B43" s="17" t="s">
-        <v>126</v>
-      </c>
+      <c r="B43" s="17"/>
       <c r="C43" s="17"/>
-      <c r="D43" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="E43" s="14">
-        <f>COUNTIF(F43:ZZ43,"da")</f>
-        <v>0</v>
-      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
@@ -8982,9 +8700,15 @@
       <c r="CK43" s="15"/>
     </row>
     <row r="44" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
+      <c r="A44">
+        <f>SUM(E46)</f>
+        <v>0</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
@@ -9162,10 +8886,17 @@
       <c r="CK45" s="15"/>
     </row>
     <row r="46" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B46" s="17"/>
+      <c r="B46" s="17" t="s">
+        <v>126</v>
+      </c>
       <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="14"/>
+      <c r="D46" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46" s="14">
+        <f>COUNTIF(F46:ZZ46,"da")</f>
+        <v>0</v>
+      </c>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
@@ -9252,15 +8983,9 @@
       <c r="CK46" s="15"/>
     </row>
     <row r="47" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f>SUM(E49:E56)</f>
-        <v>4</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
@@ -9438,17 +9163,10 @@
       <c r="CK48" s="15"/>
     </row>
     <row r="49" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B49" s="17" t="s">
-        <v>87</v>
-      </c>
+      <c r="B49" s="17"/>
       <c r="C49" s="17"/>
-      <c r="D49" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="E49" s="14">
-        <f>COUNTIF(F49:ZZ49,"da")</f>
-        <v>0</v>
-      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
@@ -9535,9 +9253,15 @@
       <c r="CK49" s="15"/>
     </row>
     <row r="50" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
+      <c r="A50">
+        <f>SUM(E52:E59)</f>
+        <v>4</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
@@ -9625,17 +9349,10 @@
       <c r="CK50" s="15"/>
     </row>
     <row r="51" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B51" s="17" t="s">
-        <v>95</v>
-      </c>
+      <c r="B51" s="17"/>
       <c r="C51" s="17"/>
-      <c r="D51" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="E51" s="14">
-        <f>COUNTIF(F51:ZZ51,"da")</f>
-        <v>0</v>
-      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
@@ -9722,10 +9439,12 @@
       <c r="CK51" s="15"/>
     </row>
     <row r="52" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B52" s="17"/>
+      <c r="B52" s="17" t="s">
+        <v>87</v>
+      </c>
       <c r="C52" s="17"/>
       <c r="D52" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E52" s="14">
         <f>COUNTIF(F52:ZZ52,"da")</f>
@@ -9908,15 +9627,15 @@
     </row>
     <row r="54" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B54" s="17" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E54" s="14">
         <f>COUNTIF(F54:ZZ54,"da")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
@@ -9928,14 +9647,10 @@
       <c r="M54" s="14"/>
       <c r="N54" s="14"/>
       <c r="O54" s="14"/>
-      <c r="P54" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
       <c r="R54" s="14"/>
-      <c r="S54" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="S54" s="14"/>
       <c r="T54" s="14"/>
       <c r="U54" s="14"/>
       <c r="V54" s="14"/>
@@ -10010,8 +9725,13 @@
     <row r="55" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="14"/>
+      <c r="D55" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E55" s="14">
+        <f>COUNTIF(F55:ZZ55,"da")</f>
+        <v>0</v>
+      </c>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
@@ -10098,26 +9818,15 @@
       <c r="CK55" s="15"/>
     </row>
     <row r="56" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B56" s="17" t="s">
-        <v>126</v>
-      </c>
+      <c r="B56" s="17"/>
       <c r="C56" s="17"/>
-      <c r="D56" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E56" s="14">
-        <f>COUNTIF(F56:ZZ56,"da")</f>
-        <v>2</v>
-      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
-      <c r="H56" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="H56" s="14"/>
       <c r="I56" s="14"/>
-      <c r="J56" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="J56" s="14"/>
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
@@ -10199,10 +9908,17 @@
       <c r="CK56" s="15"/>
     </row>
     <row r="57" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B57" s="17"/>
+      <c r="B57" s="17" t="s">
+        <v>113</v>
+      </c>
       <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="14"/>
+      <c r="D57" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E57" s="14">
+        <f>COUNTIF(F57:ZZ57,"da")</f>
+        <v>2</v>
+      </c>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
@@ -10213,10 +9929,14 @@
       <c r="M57" s="14"/>
       <c r="N57" s="14"/>
       <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
+      <c r="P57" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
+      <c r="S57" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="T57" s="14"/>
       <c r="U57" s="14"/>
       <c r="V57" s="14"/>
@@ -10379,15 +10099,26 @@
       <c r="CK58" s="15"/>
     </row>
     <row r="59" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B59" s="17"/>
+      <c r="B59" s="17" t="s">
+        <v>126</v>
+      </c>
       <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="14"/>
+      <c r="D59" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E59" s="14">
+        <f>COUNTIF(F59:ZZ59,"da")</f>
+        <v>2</v>
+      </c>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
+      <c r="H59" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
+      <c r="J59" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
@@ -10468,16 +10199,10 @@
       <c r="CJ59" s="15"/>
       <c r="CK59" s="15"/>
     </row>
-    <row r="60" spans="1:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <f>SUM(E62:E63)</f>
-        <v>0</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
+    <row r="60" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
@@ -10655,17 +10380,10 @@
       <c r="CK61" s="15"/>
     </row>
     <row r="62" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B62" s="17" t="s">
-        <v>126</v>
-      </c>
+      <c r="B62" s="17"/>
       <c r="C62" s="17"/>
-      <c r="D62" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E62" s="14">
-        <f>COUNTIF(F62:ZZ62,"da")</f>
-        <v>0</v>
-      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
@@ -10751,16 +10469,17 @@
       <c r="CJ62" s="15"/>
       <c r="CK62" s="15"/>
     </row>
-    <row r="63" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="E63" s="14">
-        <f>COUNTIF(F63:ZZ63,"da")</f>
+    <row r="63" spans="1:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>SUM(E65:E66)</f>
         <v>0</v>
       </c>
+      <c r="B63" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="14"/>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
@@ -10936,11 +10655,18 @@
       <c r="CJ64" s="15"/>
       <c r="CK64" s="15"/>
     </row>
-    <row r="65" spans="1:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="14"/>
+    <row r="65" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="B65" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E65" s="14">
+        <f>COUNTIF(F65:ZZ65,"da")</f>
+        <v>0</v>
+      </c>
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
@@ -11026,11 +10752,16 @@
       <c r="CJ65" s="15"/>
       <c r="CK65" s="15"/>
     </row>
-    <row r="66" spans="1:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="14"/>
+    <row r="66" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E66" s="14">
+        <f>COUNTIF(F66:ZZ66,"da")</f>
+        <v>0</v>
+      </c>
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
@@ -11116,16 +10847,10 @@
       <c r="CJ66" s="15"/>
       <c r="CK66" s="15"/>
     </row>
-    <row r="67" spans="1:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <f>SUM(E69:E72)</f>
-        <v>17</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
+    <row r="67" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
@@ -11303,17 +11028,10 @@
       <c r="CK68" s="15"/>
     </row>
     <row r="69" spans="1:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="B69" s="10"/>
       <c r="C69" s="10"/>
-      <c r="D69" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E69" s="14">
-        <f>COUNTIF(F69:ZZ69,"da")</f>
-        <v>17</v>
-      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
@@ -11328,15 +11046,11 @@
       <c r="Q69" s="14"/>
       <c r="R69" s="14"/>
       <c r="S69" s="14"/>
-      <c r="T69" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="T69" s="14"/>
       <c r="U69" s="14"/>
       <c r="V69" s="14"/>
       <c r="W69" s="14"/>
-      <c r="X69" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="X69" s="14"/>
       <c r="Y69" s="14"/>
       <c r="Z69" s="14"/>
       <c r="AA69" s="14"/>
@@ -11348,18 +11062,12 @@
       <c r="AG69" s="14"/>
       <c r="AH69" s="14"/>
       <c r="AI69" s="14"/>
-      <c r="AJ69" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK69" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AJ69" s="14"/>
+      <c r="AK69" s="14"/>
       <c r="AL69" s="14"/>
       <c r="AM69" s="14"/>
       <c r="AN69" s="14"/>
-      <c r="AO69" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="AO69" s="15"/>
       <c r="AP69" s="14"/>
       <c r="AQ69" s="14"/>
       <c r="AR69" s="14"/>
@@ -11370,58 +11078,34 @@
       <c r="AW69" s="14"/>
       <c r="AX69" s="14"/>
       <c r="AY69" s="14"/>
-      <c r="AZ69" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AZ69" s="14"/>
       <c r="BA69" s="14"/>
       <c r="BB69" s="14"/>
       <c r="BC69" s="14"/>
-      <c r="BD69" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BD69" s="14"/>
       <c r="BE69" s="14"/>
       <c r="BF69" s="14"/>
       <c r="BG69" s="14"/>
-      <c r="BH69" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI69" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ69" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BH69" s="14"/>
+      <c r="BI69" s="14"/>
+      <c r="BJ69" s="14"/>
       <c r="BK69" s="14"/>
-      <c r="BL69" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM69" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BL69" s="14"/>
+      <c r="BM69" s="14"/>
       <c r="BN69" s="14"/>
       <c r="BO69" s="14"/>
-      <c r="BP69" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BP69" s="14"/>
       <c r="BQ69" s="14"/>
       <c r="BR69" s="15"/>
       <c r="BS69" s="15"/>
-      <c r="BT69" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU69" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BT69" s="15"/>
+      <c r="BU69" s="15"/>
       <c r="BV69" s="15"/>
       <c r="BW69" s="15"/>
-      <c r="BX69" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BX69" s="15"/>
       <c r="BY69" s="15"/>
       <c r="BZ69" s="15"/>
-      <c r="CA69" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="CA69" s="15"/>
       <c r="CB69" s="15"/>
       <c r="CC69" s="15"/>
       <c r="CD69" s="15"/>
@@ -11434,9 +11118,15 @@
       <c r="CK69" s="15"/>
     </row>
     <row r="70" spans="1:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
+      <c r="A70">
+        <f>SUM(E72:E75)</f>
+        <v>17</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
@@ -11524,17 +11214,10 @@
       <c r="CK70" s="15"/>
     </row>
     <row r="71" spans="1:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="10" t="s">
-        <v>113</v>
-      </c>
+      <c r="B71" s="10"/>
       <c r="C71" s="10"/>
-      <c r="D71" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E71" s="14">
-        <f>COUNTIF(F71:ZZ71,"da")</f>
-        <v>0</v>
-      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
@@ -11621,14 +11304,16 @@
       <c r="CK71" s="15"/>
     </row>
     <row r="72" spans="1:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="10"/>
+      <c r="B72" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E72" s="14">
         <f>COUNTIF(F72:ZZ72,"da")</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
@@ -11644,11 +11329,15 @@
       <c r="Q72" s="14"/>
       <c r="R72" s="14"/>
       <c r="S72" s="14"/>
-      <c r="T72" s="14"/>
+      <c r="T72" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="U72" s="14"/>
       <c r="V72" s="14"/>
       <c r="W72" s="14"/>
-      <c r="X72" s="14"/>
+      <c r="X72" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="Y72" s="14"/>
       <c r="Z72" s="14"/>
       <c r="AA72" s="14"/>
@@ -11660,12 +11349,18 @@
       <c r="AG72" s="14"/>
       <c r="AH72" s="14"/>
       <c r="AI72" s="14"/>
-      <c r="AJ72" s="14"/>
-      <c r="AK72" s="14"/>
+      <c r="AJ72" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK72" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AL72" s="14"/>
       <c r="AM72" s="14"/>
       <c r="AN72" s="14"/>
-      <c r="AO72" s="15"/>
+      <c r="AO72" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="AP72" s="14"/>
       <c r="AQ72" s="14"/>
       <c r="AR72" s="14"/>
@@ -11676,34 +11371,58 @@
       <c r="AW72" s="14"/>
       <c r="AX72" s="14"/>
       <c r="AY72" s="14"/>
-      <c r="AZ72" s="14"/>
+      <c r="AZ72" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BA72" s="14"/>
       <c r="BB72" s="14"/>
       <c r="BC72" s="14"/>
-      <c r="BD72" s="14"/>
+      <c r="BD72" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BE72" s="14"/>
       <c r="BF72" s="14"/>
       <c r="BG72" s="14"/>
-      <c r="BH72" s="14"/>
-      <c r="BI72" s="14"/>
-      <c r="BJ72" s="14"/>
+      <c r="BH72" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI72" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ72" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BK72" s="14"/>
-      <c r="BL72" s="14"/>
-      <c r="BM72" s="14"/>
+      <c r="BL72" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM72" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BN72" s="14"/>
       <c r="BO72" s="14"/>
-      <c r="BP72" s="14"/>
+      <c r="BP72" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BQ72" s="14"/>
       <c r="BR72" s="15"/>
       <c r="BS72" s="15"/>
-      <c r="BT72" s="15"/>
-      <c r="BU72" s="15"/>
+      <c r="BT72" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU72" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="BV72" s="15"/>
       <c r="BW72" s="15"/>
-      <c r="BX72" s="15"/>
+      <c r="BX72" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="BY72" s="15"/>
       <c r="BZ72" s="15"/>
-      <c r="CA72" s="15"/>
+      <c r="CA72" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="CB72" s="15"/>
       <c r="CC72" s="15"/>
       <c r="CD72" s="15"/>
@@ -11806,10 +11525,17 @@
       <c r="CK73" s="15"/>
     </row>
     <row r="74" spans="1:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="10"/>
+      <c r="B74" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="14"/>
+      <c r="D74" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E74" s="14">
+        <f>COUNTIF(F74:ZZ74,"da")</f>
+        <v>0</v>
+      </c>
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
@@ -11895,11 +11621,16 @@
       <c r="CJ74" s="15"/>
       <c r="CK74" s="15"/>
     </row>
-    <row r="75" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="14"/>
+    <row r="75" spans="1:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E75" s="14">
+        <f>COUNTIF(F75:ZZ75,"da")</f>
+        <v>0</v>
+      </c>
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
@@ -11986,15 +11717,9 @@
       <c r="CK75" s="15"/>
     </row>
     <row r="76" spans="1:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <f>SUM(E78:E92)</f>
-        <v>69</v>
-      </c>
-      <c r="B76" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
@@ -12081,10 +11806,10 @@
       <c r="CJ76" s="15"/>
       <c r="CK76" s="15"/>
     </row>
-    <row r="77" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
+    <row r="77" spans="1:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
@@ -12172,17 +11897,10 @@
       <c r="CK77" s="15"/>
     </row>
     <row r="78" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B78" s="17" t="s">
-        <v>87</v>
-      </c>
+      <c r="B78" s="17"/>
       <c r="C78" s="17"/>
-      <c r="D78" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="E78" s="14">
-        <f t="shared" ref="E78:E84" si="7">COUNTIF(F78:ZZ78,"da")</f>
-        <v>0</v>
-      </c>
+      <c r="D78" s="17"/>
+      <c r="E78" s="14"/>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
@@ -12269,15 +11987,16 @@
       <c r="CK78" s="15"/>
     </row>
     <row r="79" spans="1:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E79" s="14">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
+      <c r="A79">
+        <f>SUM(E81:E95)</f>
+        <v>69</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
@@ -12298,130 +12017,60 @@
       <c r="W79" s="14"/>
       <c r="X79" s="14"/>
       <c r="Y79" s="14"/>
-      <c r="Z79" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="Z79" s="14"/>
       <c r="AA79" s="14"/>
-      <c r="AB79" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AB79" s="14"/>
       <c r="AC79" s="14"/>
       <c r="AD79" s="14"/>
       <c r="AE79" s="14"/>
       <c r="AF79" s="14"/>
       <c r="AG79" s="14"/>
-      <c r="AH79" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI79" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ79" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AH79" s="14"/>
+      <c r="AI79" s="14"/>
+      <c r="AJ79" s="14"/>
       <c r="AK79" s="14"/>
-      <c r="AL79" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM79" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN79" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO79" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP79" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ79" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR79" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS79" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AL79" s="14"/>
+      <c r="AM79" s="14"/>
+      <c r="AN79" s="14"/>
+      <c r="AO79" s="15"/>
+      <c r="AP79" s="14"/>
+      <c r="AQ79" s="14"/>
+      <c r="AR79" s="14"/>
+      <c r="AS79" s="14"/>
       <c r="AT79" s="14"/>
       <c r="AU79" s="14"/>
-      <c r="AV79" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AV79" s="14"/>
       <c r="AW79" s="14"/>
-      <c r="AX79" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY79" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AZ79" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA79" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB79" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC79" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AX79" s="14"/>
+      <c r="AY79" s="14"/>
+      <c r="AZ79" s="14"/>
+      <c r="BA79" s="14"/>
+      <c r="BB79" s="14"/>
+      <c r="BC79" s="14"/>
       <c r="BD79" s="14"/>
       <c r="BE79" s="14"/>
       <c r="BF79" s="14"/>
       <c r="BG79" s="14"/>
-      <c r="BH79" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI79" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ79" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK79" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BH79" s="14"/>
+      <c r="BI79" s="14"/>
+      <c r="BJ79" s="14"/>
+      <c r="BK79" s="14"/>
       <c r="BL79" s="14"/>
-      <c r="BM79" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BN79" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BM79" s="14"/>
+      <c r="BN79" s="14"/>
       <c r="BO79" s="14"/>
-      <c r="BP79" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BP79" s="14"/>
       <c r="BQ79" s="14"/>
-      <c r="BR79" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="BS79" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="BT79" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU79" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="BV79" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BR79" s="15"/>
+      <c r="BS79" s="15"/>
+      <c r="BT79" s="15"/>
+      <c r="BU79" s="15"/>
+      <c r="BV79" s="15"/>
       <c r="BW79" s="15"/>
-      <c r="BX79" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BX79" s="15"/>
       <c r="BY79" s="15"/>
-      <c r="BZ79" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="CA79" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BZ79" s="15"/>
+      <c r="CA79" s="15"/>
       <c r="CB79" s="15"/>
       <c r="CC79" s="15"/>
       <c r="CD79" s="15"/>
@@ -12433,16 +12082,11 @@
       <c r="CJ79" s="15"/>
       <c r="CK79" s="15"/>
     </row>
-    <row r="80" spans="1:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E80" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+    <row r="80" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
@@ -12528,15 +12172,17 @@
       <c r="CJ80" s="15"/>
       <c r="CK80" s="15"/>
     </row>
-    <row r="81" spans="2:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10" t="s">
-        <v>241</v>
+    <row r="81" spans="2:89" x14ac:dyDescent="0.25">
+      <c r="B81" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17" t="s">
+        <v>237</v>
       </c>
       <c r="E81" s="14">
-        <f t="shared" si="7"/>
-        <v>28</v>
+        <f t="shared" ref="E81:E87" si="8">COUNTIF(F81:ZZ81,"da")</f>
+        <v>0</v>
       </c>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
@@ -12558,9 +12204,7 @@
       <c r="W81" s="14"/>
       <c r="X81" s="14"/>
       <c r="Y81" s="14"/>
-      <c r="Z81" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="Z81" s="14"/>
       <c r="AA81" s="14"/>
       <c r="AB81" s="14"/>
       <c r="AC81" s="14"/>
@@ -12568,106 +12212,52 @@
       <c r="AE81" s="14"/>
       <c r="AF81" s="14"/>
       <c r="AG81" s="14"/>
-      <c r="AH81" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI81" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ81" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AH81" s="14"/>
+      <c r="AI81" s="14"/>
+      <c r="AJ81" s="14"/>
       <c r="AK81" s="14"/>
-      <c r="AL81" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM81" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN81" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO81" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP81" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ81" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR81" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AL81" s="14"/>
+      <c r="AM81" s="14"/>
+      <c r="AN81" s="14"/>
+      <c r="AO81" s="15"/>
+      <c r="AP81" s="14"/>
+      <c r="AQ81" s="14"/>
+      <c r="AR81" s="14"/>
       <c r="AS81" s="14"/>
       <c r="AT81" s="14"/>
       <c r="AU81" s="14"/>
-      <c r="AV81" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AV81" s="14"/>
       <c r="AW81" s="14"/>
-      <c r="AX81" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY81" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AZ81" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA81" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB81" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC81" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AX81" s="14"/>
+      <c r="AY81" s="14"/>
+      <c r="AZ81" s="14"/>
+      <c r="BA81" s="14"/>
+      <c r="BB81" s="14"/>
+      <c r="BC81" s="14"/>
       <c r="BD81" s="14"/>
       <c r="BE81" s="14"/>
       <c r="BF81" s="14"/>
       <c r="BG81" s="14"/>
-      <c r="BH81" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BH81" s="14"/>
       <c r="BI81" s="14"/>
-      <c r="BJ81" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK81" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BJ81" s="14"/>
+      <c r="BK81" s="14"/>
       <c r="BL81" s="14"/>
       <c r="BM81" s="14"/>
-      <c r="BN81" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BN81" s="14"/>
       <c r="BO81" s="14"/>
       <c r="BP81" s="14"/>
       <c r="BQ81" s="14"/>
-      <c r="BR81" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="BS81" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="BT81" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BR81" s="15"/>
+      <c r="BS81" s="15"/>
+      <c r="BT81" s="15"/>
       <c r="BU81" s="15"/>
       <c r="BV81" s="15"/>
       <c r="BW81" s="15"/>
-      <c r="BX81" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BX81" s="15"/>
       <c r="BY81" s="15"/>
-      <c r="BZ81" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="CA81" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BZ81" s="15"/>
+      <c r="CA81" s="15"/>
       <c r="CB81" s="15"/>
       <c r="CC81" s="15"/>
       <c r="CD81" s="15"/>
@@ -12683,11 +12273,11 @@
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>35</v>
       </c>
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
@@ -12709,60 +12299,130 @@
       <c r="W82" s="14"/>
       <c r="X82" s="14"/>
       <c r="Y82" s="14"/>
-      <c r="Z82" s="14"/>
+      <c r="Z82" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AA82" s="14"/>
-      <c r="AB82" s="14"/>
+      <c r="AB82" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AC82" s="14"/>
       <c r="AD82" s="14"/>
       <c r="AE82" s="14"/>
       <c r="AF82" s="14"/>
       <c r="AG82" s="14"/>
-      <c r="AH82" s="14"/>
-      <c r="AI82" s="14"/>
-      <c r="AJ82" s="14"/>
+      <c r="AH82" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI82" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ82" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AK82" s="14"/>
-      <c r="AL82" s="14"/>
-      <c r="AM82" s="14"/>
-      <c r="AN82" s="14"/>
-      <c r="AO82" s="15"/>
-      <c r="AP82" s="14"/>
-      <c r="AQ82" s="14"/>
-      <c r="AR82" s="14"/>
-      <c r="AS82" s="14"/>
+      <c r="AL82" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM82" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN82" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO82" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP82" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ82" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR82" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS82" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AT82" s="14"/>
       <c r="AU82" s="14"/>
-      <c r="AV82" s="14"/>
+      <c r="AV82" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AW82" s="14"/>
-      <c r="AX82" s="14"/>
-      <c r="AY82" s="14"/>
-      <c r="AZ82" s="14"/>
-      <c r="BA82" s="14"/>
-      <c r="BB82" s="14"/>
-      <c r="BC82" s="14"/>
+      <c r="AX82" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY82" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ82" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA82" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB82" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC82" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BD82" s="14"/>
       <c r="BE82" s="14"/>
       <c r="BF82" s="14"/>
       <c r="BG82" s="14"/>
-      <c r="BH82" s="14"/>
-      <c r="BI82" s="14"/>
-      <c r="BJ82" s="14"/>
-      <c r="BK82" s="14"/>
+      <c r="BH82" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI82" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ82" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK82" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BL82" s="14"/>
-      <c r="BM82" s="14"/>
-      <c r="BN82" s="14"/>
+      <c r="BM82" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN82" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BO82" s="14"/>
-      <c r="BP82" s="14"/>
+      <c r="BP82" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BQ82" s="14"/>
-      <c r="BR82" s="15"/>
-      <c r="BS82" s="15"/>
-      <c r="BT82" s="15"/>
-      <c r="BU82" s="15"/>
-      <c r="BV82" s="15"/>
+      <c r="BR82" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS82" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT82" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU82" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BV82" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="BW82" s="15"/>
-      <c r="BX82" s="15"/>
+      <c r="BX82" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="BY82" s="15"/>
-      <c r="BZ82" s="15"/>
-      <c r="CA82" s="15"/>
+      <c r="BZ82" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CA82" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="CB82" s="15"/>
       <c r="CC82" s="15"/>
       <c r="CD82" s="15"/>
@@ -12774,15 +12434,15 @@
       <c r="CJ82" s="15"/>
       <c r="CK82" s="15"/>
     </row>
-    <row r="83" spans="2:89" x14ac:dyDescent="0.25">
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
+    <row r="83" spans="2:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
       <c r="D83" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
@@ -12819,17 +12479,11 @@
       <c r="AL83" s="14"/>
       <c r="AM83" s="14"/>
       <c r="AN83" s="14"/>
-      <c r="AO83" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="AO83" s="15"/>
       <c r="AP83" s="14"/>
-      <c r="AQ83" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AQ83" s="14"/>
       <c r="AR83" s="14"/>
-      <c r="AS83" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="AS83" s="14"/>
       <c r="AT83" s="14"/>
       <c r="AU83" s="14"/>
       <c r="AV83" s="14"/>
@@ -12837,9 +12491,7 @@
       <c r="AX83" s="14"/>
       <c r="AY83" s="14"/>
       <c r="AZ83" s="14"/>
-      <c r="BA83" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BA83" s="14"/>
       <c r="BB83" s="14"/>
       <c r="BC83" s="14"/>
       <c r="BD83" s="14"/>
@@ -12848,9 +12500,7 @@
       <c r="BG83" s="14"/>
       <c r="BH83" s="14"/>
       <c r="BI83" s="14"/>
-      <c r="BJ83" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="BJ83" s="14"/>
       <c r="BK83" s="14"/>
       <c r="BL83" s="14"/>
       <c r="BM83" s="14"/>
@@ -12866,9 +12516,7 @@
       <c r="BW83" s="15"/>
       <c r="BX83" s="15"/>
       <c r="BY83" s="15"/>
-      <c r="BZ83" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="BZ83" s="15"/>
       <c r="CA83" s="15"/>
       <c r="CB83" s="15"/>
       <c r="CC83" s="15"/>
@@ -12881,15 +12529,15 @@
       <c r="CJ83" s="15"/>
       <c r="CK83" s="15"/>
     </row>
-    <row r="84" spans="2:89" x14ac:dyDescent="0.25">
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
+    <row r="84" spans="2:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
       <c r="D84" s="10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E84" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>28</v>
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
@@ -12911,7 +12559,9 @@
       <c r="W84" s="14"/>
       <c r="X84" s="14"/>
       <c r="Y84" s="14"/>
-      <c r="Z84" s="14"/>
+      <c r="Z84" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AA84" s="14"/>
       <c r="AB84" s="14"/>
       <c r="AC84" s="14"/>
@@ -12919,52 +12569,106 @@
       <c r="AE84" s="14"/>
       <c r="AF84" s="14"/>
       <c r="AG84" s="14"/>
-      <c r="AH84" s="14"/>
-      <c r="AI84" s="14"/>
-      <c r="AJ84" s="14"/>
+      <c r="AH84" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI84" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ84" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AK84" s="14"/>
-      <c r="AL84" s="14"/>
-      <c r="AM84" s="14"/>
-      <c r="AN84" s="14"/>
-      <c r="AO84" s="15"/>
-      <c r="AP84" s="14"/>
-      <c r="AQ84" s="14"/>
-      <c r="AR84" s="14"/>
+      <c r="AL84" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM84" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN84" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO84" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP84" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ84" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR84" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AS84" s="14"/>
       <c r="AT84" s="14"/>
       <c r="AU84" s="14"/>
-      <c r="AV84" s="14"/>
+      <c r="AV84" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AW84" s="14"/>
-      <c r="AX84" s="14"/>
-      <c r="AY84" s="14"/>
-      <c r="AZ84" s="14"/>
-      <c r="BA84" s="14"/>
-      <c r="BB84" s="14"/>
-      <c r="BC84" s="14"/>
+      <c r="AX84" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY84" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ84" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA84" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB84" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC84" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BD84" s="14"/>
       <c r="BE84" s="14"/>
       <c r="BF84" s="14"/>
       <c r="BG84" s="14"/>
-      <c r="BH84" s="14"/>
+      <c r="BH84" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BI84" s="14"/>
-      <c r="BJ84" s="14"/>
-      <c r="BK84" s="14"/>
+      <c r="BJ84" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK84" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BL84" s="14"/>
       <c r="BM84" s="14"/>
-      <c r="BN84" s="14"/>
+      <c r="BN84" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BO84" s="14"/>
       <c r="BP84" s="14"/>
       <c r="BQ84" s="14"/>
-      <c r="BR84" s="15"/>
-      <c r="BS84" s="15"/>
-      <c r="BT84" s="15"/>
+      <c r="BR84" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS84" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT84" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="BU84" s="15"/>
       <c r="BV84" s="15"/>
       <c r="BW84" s="15"/>
-      <c r="BX84" s="15"/>
+      <c r="BX84" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="BY84" s="15"/>
-      <c r="BZ84" s="15"/>
-      <c r="CA84" s="15"/>
+      <c r="BZ84" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CA84" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="CB84" s="15"/>
       <c r="CC84" s="15"/>
       <c r="CD84" s="15"/>
@@ -12976,11 +12680,16 @@
       <c r="CJ84" s="15"/>
       <c r="CK84" s="15"/>
     </row>
-    <row r="85" spans="2:89" x14ac:dyDescent="0.25">
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="14"/>
+    <row r="85" spans="2:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E85" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
@@ -13067,16 +12776,14 @@
       <c r="CK85" s="15"/>
     </row>
     <row r="86" spans="2:89" x14ac:dyDescent="0.25">
-      <c r="B86" s="17" t="s">
-        <v>113</v>
-      </c>
+      <c r="B86" s="17"/>
       <c r="C86" s="17"/>
-      <c r="D86" s="17" t="s">
-        <v>245</v>
+      <c r="D86" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="E86" s="14">
-        <f t="shared" ref="E86:E92" si="8">COUNTIF(F86:ZZ86,"da")</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="F86" s="14"/>
       <c r="G86" s="14"/>
@@ -13113,11 +12820,17 @@
       <c r="AL86" s="14"/>
       <c r="AM86" s="14"/>
       <c r="AN86" s="14"/>
-      <c r="AO86" s="15"/>
+      <c r="AO86" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="AP86" s="14"/>
-      <c r="AQ86" s="14"/>
+      <c r="AQ86" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AR86" s="14"/>
-      <c r="AS86" s="14"/>
+      <c r="AS86" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="AT86" s="14"/>
       <c r="AU86" s="14"/>
       <c r="AV86" s="14"/>
@@ -13125,7 +12838,9 @@
       <c r="AX86" s="14"/>
       <c r="AY86" s="14"/>
       <c r="AZ86" s="14"/>
-      <c r="BA86" s="14"/>
+      <c r="BA86" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BB86" s="14"/>
       <c r="BC86" s="14"/>
       <c r="BD86" s="14"/>
@@ -13134,7 +12849,9 @@
       <c r="BG86" s="14"/>
       <c r="BH86" s="14"/>
       <c r="BI86" s="14"/>
-      <c r="BJ86" s="14"/>
+      <c r="BJ86" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="BK86" s="14"/>
       <c r="BL86" s="14"/>
       <c r="BM86" s="14"/>
@@ -13150,7 +12867,9 @@
       <c r="BW86" s="15"/>
       <c r="BX86" s="15"/>
       <c r="BY86" s="15"/>
-      <c r="BZ86" s="15"/>
+      <c r="BZ86" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="CA86" s="15"/>
       <c r="CB86" s="15"/>
       <c r="CC86" s="15"/>
@@ -13166,8 +12885,8 @@
     <row r="87" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
-      <c r="D87" s="17" t="s">
-        <v>246</v>
+      <c r="D87" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="E87" s="14">
         <f t="shared" si="8"/>
@@ -13261,13 +12980,8 @@
     <row r="88" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
-      <c r="D88" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="E88" s="14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
@@ -13354,13 +13068,15 @@
       <c r="CK88" s="15"/>
     </row>
     <row r="89" spans="2:89" x14ac:dyDescent="0.25">
-      <c r="B89" s="17"/>
+      <c r="B89" s="17" t="s">
+        <v>113</v>
+      </c>
       <c r="C89" s="17"/>
       <c r="D89" s="17" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E89:E95" si="9">COUNTIF(F89:ZZ89,"da")</f>
         <v>0</v>
       </c>
       <c r="F89" s="14"/>
@@ -13452,10 +13168,10 @@
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E90" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F90" s="14"/>
@@ -13547,10 +13263,10 @@
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E91" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F91" s="14"/>
@@ -13642,10 +13358,10 @@
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F92" s="14"/>
@@ -13736,8 +13452,13 @@
     <row r="93" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="14"/>
+      <c r="D93" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E93" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="F93" s="14"/>
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
@@ -13826,8 +13547,13 @@
     <row r="94" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="14"/>
+      <c r="D94" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E94" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="F94" s="14"/>
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
@@ -13916,8 +13642,13 @@
     <row r="95" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="14"/>
+      <c r="D95" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E95" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="F95" s="14"/>
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
@@ -14004,86 +13735,6 @@
       <c r="CK95" s="15"/>
     </row>
     <row r="96" spans="2:89" x14ac:dyDescent="0.25">
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="14"/>
-      <c r="N96" s="14"/>
-      <c r="O96" s="14"/>
-      <c r="P96" s="14"/>
-      <c r="Q96" s="14"/>
-      <c r="R96" s="14"/>
-      <c r="S96" s="14"/>
-      <c r="T96" s="14"/>
-      <c r="U96" s="14"/>
-      <c r="V96" s="14"/>
-      <c r="W96" s="14"/>
-      <c r="X96" s="14"/>
-      <c r="Y96" s="14"/>
-      <c r="Z96" s="14"/>
-      <c r="AA96" s="14"/>
-      <c r="AB96" s="14"/>
-      <c r="AC96" s="14"/>
-      <c r="AD96" s="14"/>
-      <c r="AE96" s="14"/>
-      <c r="AF96" s="14"/>
-      <c r="AG96" s="14"/>
-      <c r="AH96" s="14"/>
-      <c r="AI96" s="14"/>
-      <c r="AJ96" s="14"/>
-      <c r="AK96" s="14"/>
-      <c r="AL96" s="14"/>
-      <c r="AM96" s="14"/>
-      <c r="AN96" s="14"/>
-      <c r="AO96" s="15"/>
-      <c r="AP96" s="14"/>
-      <c r="AQ96" s="14"/>
-      <c r="AR96" s="14"/>
-      <c r="AS96" s="14"/>
-      <c r="AT96" s="14"/>
-      <c r="AU96" s="14"/>
-      <c r="AV96" s="14"/>
-      <c r="AW96" s="14"/>
-      <c r="AX96" s="14"/>
-      <c r="AY96" s="14"/>
-      <c r="AZ96" s="14"/>
-      <c r="BA96" s="14"/>
-      <c r="BB96" s="14"/>
-      <c r="BC96" s="14"/>
-      <c r="BD96" s="14"/>
-      <c r="BE96" s="14"/>
-      <c r="BF96" s="14"/>
-      <c r="BG96" s="14"/>
-      <c r="BH96" s="14"/>
-      <c r="BI96" s="14"/>
-      <c r="BJ96" s="14"/>
-      <c r="BK96" s="14"/>
-      <c r="BL96" s="14"/>
-      <c r="BM96" s="14"/>
-      <c r="BN96" s="14"/>
-      <c r="BO96" s="14"/>
-      <c r="BP96" s="14"/>
-      <c r="BQ96" s="14"/>
-      <c r="BR96" s="15"/>
-      <c r="BS96" s="15"/>
-      <c r="BT96" s="15"/>
-      <c r="BU96" s="15"/>
-      <c r="BV96" s="15"/>
-      <c r="BW96" s="15"/>
-      <c r="BX96" s="15"/>
-      <c r="BY96" s="15"/>
-      <c r="BZ96" s="15"/>
-      <c r="CA96" s="15"/>
-      <c r="CB96" s="15"/>
-      <c r="CC96" s="15"/>
       <c r="CD96" s="15"/>
       <c r="CE96" s="15"/>
       <c r="CF96" s="15"/>
@@ -14094,86 +13745,6 @@
       <c r="CK96" s="15"/>
     </row>
     <row r="97" spans="2:89" x14ac:dyDescent="0.25">
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
-      <c r="N97" s="14"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="14"/>
-      <c r="Q97" s="14"/>
-      <c r="R97" s="14"/>
-      <c r="S97" s="14"/>
-      <c r="T97" s="14"/>
-      <c r="U97" s="14"/>
-      <c r="V97" s="14"/>
-      <c r="W97" s="14"/>
-      <c r="X97" s="14"/>
-      <c r="Y97" s="14"/>
-      <c r="Z97" s="14"/>
-      <c r="AA97" s="14"/>
-      <c r="AB97" s="14"/>
-      <c r="AC97" s="14"/>
-      <c r="AD97" s="14"/>
-      <c r="AE97" s="14"/>
-      <c r="AF97" s="14"/>
-      <c r="AG97" s="14"/>
-      <c r="AH97" s="14"/>
-      <c r="AI97" s="14"/>
-      <c r="AJ97" s="14"/>
-      <c r="AK97" s="14"/>
-      <c r="AL97" s="14"/>
-      <c r="AM97" s="14"/>
-      <c r="AN97" s="14"/>
-      <c r="AO97" s="15"/>
-      <c r="AP97" s="14"/>
-      <c r="AQ97" s="14"/>
-      <c r="AR97" s="14"/>
-      <c r="AS97" s="14"/>
-      <c r="AT97" s="14"/>
-      <c r="AU97" s="14"/>
-      <c r="AV97" s="14"/>
-      <c r="AW97" s="14"/>
-      <c r="AX97" s="14"/>
-      <c r="AY97" s="14"/>
-      <c r="AZ97" s="14"/>
-      <c r="BA97" s="14"/>
-      <c r="BB97" s="14"/>
-      <c r="BC97" s="14"/>
-      <c r="BD97" s="14"/>
-      <c r="BE97" s="14"/>
-      <c r="BF97" s="14"/>
-      <c r="BG97" s="14"/>
-      <c r="BH97" s="14"/>
-      <c r="BI97" s="14"/>
-      <c r="BJ97" s="14"/>
-      <c r="BK97" s="14"/>
-      <c r="BL97" s="14"/>
-      <c r="BM97" s="14"/>
-      <c r="BN97" s="14"/>
-      <c r="BO97" s="14"/>
-      <c r="BP97" s="14"/>
-      <c r="BQ97" s="14"/>
-      <c r="BR97" s="15"/>
-      <c r="BS97" s="15"/>
-      <c r="BT97" s="15"/>
-      <c r="BU97" s="15"/>
-      <c r="BV97" s="15"/>
-      <c r="BW97" s="15"/>
-      <c r="BX97" s="15"/>
-      <c r="BY97" s="15"/>
-      <c r="BZ97" s="15"/>
-      <c r="CA97" s="15"/>
-      <c r="CB97" s="15"/>
-      <c r="CC97" s="15"/>
       <c r="CD97" s="15"/>
       <c r="CE97" s="15"/>
       <c r="CF97" s="15"/>
@@ -14184,86 +13755,6 @@
       <c r="CK97" s="15"/>
     </row>
     <row r="98" spans="2:89" x14ac:dyDescent="0.25">
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
-      <c r="N98" s="14"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="14"/>
-      <c r="Q98" s="14"/>
-      <c r="R98" s="14"/>
-      <c r="S98" s="14"/>
-      <c r="T98" s="14"/>
-      <c r="U98" s="14"/>
-      <c r="V98" s="14"/>
-      <c r="W98" s="14"/>
-      <c r="X98" s="14"/>
-      <c r="Y98" s="14"/>
-      <c r="Z98" s="14"/>
-      <c r="AA98" s="14"/>
-      <c r="AB98" s="14"/>
-      <c r="AC98" s="14"/>
-      <c r="AD98" s="14"/>
-      <c r="AE98" s="14"/>
-      <c r="AF98" s="14"/>
-      <c r="AG98" s="14"/>
-      <c r="AH98" s="14"/>
-      <c r="AI98" s="14"/>
-      <c r="AJ98" s="14"/>
-      <c r="AK98" s="14"/>
-      <c r="AL98" s="14"/>
-      <c r="AM98" s="14"/>
-      <c r="AN98" s="14"/>
-      <c r="AO98" s="15"/>
-      <c r="AP98" s="14"/>
-      <c r="AQ98" s="14"/>
-      <c r="AR98" s="14"/>
-      <c r="AS98" s="14"/>
-      <c r="AT98" s="14"/>
-      <c r="AU98" s="14"/>
-      <c r="AV98" s="14"/>
-      <c r="AW98" s="14"/>
-      <c r="AX98" s="14"/>
-      <c r="AY98" s="14"/>
-      <c r="AZ98" s="14"/>
-      <c r="BA98" s="14"/>
-      <c r="BB98" s="14"/>
-      <c r="BC98" s="14"/>
-      <c r="BD98" s="14"/>
-      <c r="BE98" s="14"/>
-      <c r="BF98" s="14"/>
-      <c r="BG98" s="14"/>
-      <c r="BH98" s="14"/>
-      <c r="BI98" s="14"/>
-      <c r="BJ98" s="14"/>
-      <c r="BK98" s="14"/>
-      <c r="BL98" s="14"/>
-      <c r="BM98" s="14"/>
-      <c r="BN98" s="14"/>
-      <c r="BO98" s="14"/>
-      <c r="BP98" s="14"/>
-      <c r="BQ98" s="14"/>
-      <c r="BR98" s="15"/>
-      <c r="BS98" s="15"/>
-      <c r="BT98" s="15"/>
-      <c r="BU98" s="15"/>
-      <c r="BV98" s="15"/>
-      <c r="BW98" s="15"/>
-      <c r="BX98" s="15"/>
-      <c r="BY98" s="15"/>
-      <c r="BZ98" s="15"/>
-      <c r="CA98" s="15"/>
-      <c r="CB98" s="15"/>
-      <c r="CC98" s="15"/>
       <c r="CD98" s="15"/>
       <c r="CE98" s="15"/>
       <c r="CF98" s="15"/>
@@ -14364,6 +13855,9 @@
       <c r="CK99" s="15"/>
     </row>
     <row r="100" spans="2:89" x14ac:dyDescent="0.25">
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
       <c r="E100" s="14"/>
       <c r="F100" s="14"/>
       <c r="G100" s="14"/>
@@ -14451,6 +13945,9 @@
       <c r="CK100" s="15"/>
     </row>
     <row r="101" spans="2:89" x14ac:dyDescent="0.25">
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
       <c r="E101" s="14"/>
       <c r="F101" s="14"/>
       <c r="G101" s="14"/>
@@ -14538,6 +14035,9 @@
       <c r="CK101" s="15"/>
     </row>
     <row r="102" spans="2:89" x14ac:dyDescent="0.25">
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
       <c r="E102" s="14"/>
       <c r="F102" s="14"/>
       <c r="G102" s="14"/>
@@ -14712,6 +14212,7 @@
       <c r="CK103" s="15"/>
     </row>
     <row r="104" spans="2:89" x14ac:dyDescent="0.25">
+      <c r="E104" s="14"/>
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
@@ -14798,6 +14299,7 @@
       <c r="CK104" s="15"/>
     </row>
     <row r="105" spans="2:89" x14ac:dyDescent="0.25">
+      <c r="E105" s="14"/>
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
@@ -14884,6 +14386,7 @@
       <c r="CK105" s="15"/>
     </row>
     <row r="106" spans="2:89" x14ac:dyDescent="0.25">
+      <c r="E106" s="14"/>
       <c r="F106" s="14"/>
       <c r="G106" s="14"/>
       <c r="H106" s="14"/>
@@ -15952,34 +15455,34 @@
       <c r="AM118" s="14"/>
       <c r="AN118" s="14"/>
       <c r="AO118" s="15"/>
-      <c r="AP118" s="15"/>
-      <c r="AQ118" s="15"/>
-      <c r="AR118" s="15"/>
-      <c r="AS118" s="15"/>
-      <c r="AT118" s="15"/>
-      <c r="AU118" s="15"/>
-      <c r="AV118" s="15"/>
-      <c r="AW118" s="15"/>
-      <c r="AX118" s="15"/>
-      <c r="AY118" s="15"/>
-      <c r="AZ118" s="15"/>
-      <c r="BA118" s="15"/>
-      <c r="BB118" s="15"/>
-      <c r="BC118" s="15"/>
-      <c r="BD118" s="15"/>
-      <c r="BE118" s="15"/>
-      <c r="BF118" s="15"/>
-      <c r="BG118" s="15"/>
-      <c r="BH118" s="15"/>
-      <c r="BI118" s="15"/>
-      <c r="BJ118" s="15"/>
-      <c r="BK118" s="15"/>
-      <c r="BL118" s="15"/>
-      <c r="BM118" s="15"/>
-      <c r="BN118" s="15"/>
-      <c r="BO118" s="15"/>
-      <c r="BP118" s="15"/>
-      <c r="BQ118" s="15"/>
+      <c r="AP118" s="14"/>
+      <c r="AQ118" s="14"/>
+      <c r="AR118" s="14"/>
+      <c r="AS118" s="14"/>
+      <c r="AT118" s="14"/>
+      <c r="AU118" s="14"/>
+      <c r="AV118" s="14"/>
+      <c r="AW118" s="14"/>
+      <c r="AX118" s="14"/>
+      <c r="AY118" s="14"/>
+      <c r="AZ118" s="14"/>
+      <c r="BA118" s="14"/>
+      <c r="BB118" s="14"/>
+      <c r="BC118" s="14"/>
+      <c r="BD118" s="14"/>
+      <c r="BE118" s="14"/>
+      <c r="BF118" s="14"/>
+      <c r="BG118" s="14"/>
+      <c r="BH118" s="14"/>
+      <c r="BI118" s="14"/>
+      <c r="BJ118" s="14"/>
+      <c r="BK118" s="14"/>
+      <c r="BL118" s="14"/>
+      <c r="BM118" s="14"/>
+      <c r="BN118" s="14"/>
+      <c r="BO118" s="14"/>
+      <c r="BP118" s="14"/>
+      <c r="BQ118" s="14"/>
       <c r="BR118" s="15"/>
       <c r="BS118" s="15"/>
       <c r="BT118" s="15"/>
@@ -16038,34 +15541,34 @@
       <c r="AM119" s="14"/>
       <c r="AN119" s="14"/>
       <c r="AO119" s="15"/>
-      <c r="AP119" s="15"/>
-      <c r="AQ119" s="15"/>
-      <c r="AR119" s="15"/>
-      <c r="AS119" s="15"/>
-      <c r="AT119" s="15"/>
-      <c r="AU119" s="15"/>
-      <c r="AV119" s="15"/>
-      <c r="AW119" s="15"/>
-      <c r="AX119" s="15"/>
-      <c r="AY119" s="15"/>
-      <c r="AZ119" s="15"/>
-      <c r="BA119" s="15"/>
-      <c r="BB119" s="15"/>
-      <c r="BC119" s="15"/>
-      <c r="BD119" s="15"/>
-      <c r="BE119" s="15"/>
-      <c r="BF119" s="15"/>
-      <c r="BG119" s="15"/>
-      <c r="BH119" s="15"/>
-      <c r="BI119" s="15"/>
-      <c r="BJ119" s="15"/>
-      <c r="BK119" s="15"/>
-      <c r="BL119" s="15"/>
-      <c r="BM119" s="15"/>
-      <c r="BN119" s="15"/>
-      <c r="BO119" s="15"/>
-      <c r="BP119" s="15"/>
-      <c r="BQ119" s="15"/>
+      <c r="AP119" s="14"/>
+      <c r="AQ119" s="14"/>
+      <c r="AR119" s="14"/>
+      <c r="AS119" s="14"/>
+      <c r="AT119" s="14"/>
+      <c r="AU119" s="14"/>
+      <c r="AV119" s="14"/>
+      <c r="AW119" s="14"/>
+      <c r="AX119" s="14"/>
+      <c r="AY119" s="14"/>
+      <c r="AZ119" s="14"/>
+      <c r="BA119" s="14"/>
+      <c r="BB119" s="14"/>
+      <c r="BC119" s="14"/>
+      <c r="BD119" s="14"/>
+      <c r="BE119" s="14"/>
+      <c r="BF119" s="14"/>
+      <c r="BG119" s="14"/>
+      <c r="BH119" s="14"/>
+      <c r="BI119" s="14"/>
+      <c r="BJ119" s="14"/>
+      <c r="BK119" s="14"/>
+      <c r="BL119" s="14"/>
+      <c r="BM119" s="14"/>
+      <c r="BN119" s="14"/>
+      <c r="BO119" s="14"/>
+      <c r="BP119" s="14"/>
+      <c r="BQ119" s="14"/>
       <c r="BR119" s="15"/>
       <c r="BS119" s="15"/>
       <c r="BT119" s="15"/>
@@ -16124,34 +15627,34 @@
       <c r="AM120" s="14"/>
       <c r="AN120" s="14"/>
       <c r="AO120" s="15"/>
-      <c r="AP120" s="15"/>
-      <c r="AQ120" s="15"/>
-      <c r="AR120" s="15"/>
-      <c r="AS120" s="15"/>
-      <c r="AT120" s="15"/>
-      <c r="AU120" s="15"/>
-      <c r="AV120" s="15"/>
-      <c r="AW120" s="15"/>
-      <c r="AX120" s="15"/>
-      <c r="AY120" s="15"/>
-      <c r="AZ120" s="15"/>
-      <c r="BA120" s="15"/>
-      <c r="BB120" s="15"/>
-      <c r="BC120" s="15"/>
-      <c r="BD120" s="15"/>
-      <c r="BE120" s="15"/>
-      <c r="BF120" s="15"/>
-      <c r="BG120" s="15"/>
-      <c r="BH120" s="15"/>
-      <c r="BI120" s="15"/>
-      <c r="BJ120" s="15"/>
-      <c r="BK120" s="15"/>
-      <c r="BL120" s="15"/>
-      <c r="BM120" s="15"/>
-      <c r="BN120" s="15"/>
-      <c r="BO120" s="15"/>
-      <c r="BP120" s="15"/>
-      <c r="BQ120" s="15"/>
+      <c r="AP120" s="14"/>
+      <c r="AQ120" s="14"/>
+      <c r="AR120" s="14"/>
+      <c r="AS120" s="14"/>
+      <c r="AT120" s="14"/>
+      <c r="AU120" s="14"/>
+      <c r="AV120" s="14"/>
+      <c r="AW120" s="14"/>
+      <c r="AX120" s="14"/>
+      <c r="AY120" s="14"/>
+      <c r="AZ120" s="14"/>
+      <c r="BA120" s="14"/>
+      <c r="BB120" s="14"/>
+      <c r="BC120" s="14"/>
+      <c r="BD120" s="14"/>
+      <c r="BE120" s="14"/>
+      <c r="BF120" s="14"/>
+      <c r="BG120" s="14"/>
+      <c r="BH120" s="14"/>
+      <c r="BI120" s="14"/>
+      <c r="BJ120" s="14"/>
+      <c r="BK120" s="14"/>
+      <c r="BL120" s="14"/>
+      <c r="BM120" s="14"/>
+      <c r="BN120" s="14"/>
+      <c r="BO120" s="14"/>
+      <c r="BP120" s="14"/>
+      <c r="BQ120" s="14"/>
       <c r="BR120" s="15"/>
       <c r="BS120" s="15"/>
       <c r="BT120" s="15"/>
@@ -17327,6 +16830,55 @@
       <c r="AL134" s="14"/>
       <c r="AM134" s="14"/>
       <c r="AN134" s="14"/>
+      <c r="AO134" s="15"/>
+      <c r="AP134" s="15"/>
+      <c r="AQ134" s="15"/>
+      <c r="AR134" s="15"/>
+      <c r="AS134" s="15"/>
+      <c r="AT134" s="15"/>
+      <c r="AU134" s="15"/>
+      <c r="AV134" s="15"/>
+      <c r="AW134" s="15"/>
+      <c r="AX134" s="15"/>
+      <c r="AY134" s="15"/>
+      <c r="AZ134" s="15"/>
+      <c r="BA134" s="15"/>
+      <c r="BB134" s="15"/>
+      <c r="BC134" s="15"/>
+      <c r="BD134" s="15"/>
+      <c r="BE134" s="15"/>
+      <c r="BF134" s="15"/>
+      <c r="BG134" s="15"/>
+      <c r="BH134" s="15"/>
+      <c r="BI134" s="15"/>
+      <c r="BJ134" s="15"/>
+      <c r="BK134" s="15"/>
+      <c r="BL134" s="15"/>
+      <c r="BM134" s="15"/>
+      <c r="BN134" s="15"/>
+      <c r="BO134" s="15"/>
+      <c r="BP134" s="15"/>
+      <c r="BQ134" s="15"/>
+      <c r="BR134" s="15"/>
+      <c r="BS134" s="15"/>
+      <c r="BT134" s="15"/>
+      <c r="BU134" s="15"/>
+      <c r="BV134" s="15"/>
+      <c r="BW134" s="15"/>
+      <c r="BX134" s="15"/>
+      <c r="BY134" s="15"/>
+      <c r="BZ134" s="15"/>
+      <c r="CA134" s="15"/>
+      <c r="CB134" s="15"/>
+      <c r="CC134" s="15"/>
+      <c r="CD134" s="15"/>
+      <c r="CE134" s="15"/>
+      <c r="CF134" s="15"/>
+      <c r="CG134" s="15"/>
+      <c r="CH134" s="15"/>
+      <c r="CI134" s="15"/>
+      <c r="CJ134" s="15"/>
+      <c r="CK134" s="15"/>
     </row>
     <row r="135" spans="6:89" x14ac:dyDescent="0.25">
       <c r="F135" s="14"/>
@@ -17364,6 +16916,55 @@
       <c r="AL135" s="14"/>
       <c r="AM135" s="14"/>
       <c r="AN135" s="14"/>
+      <c r="AO135" s="15"/>
+      <c r="AP135" s="15"/>
+      <c r="AQ135" s="15"/>
+      <c r="AR135" s="15"/>
+      <c r="AS135" s="15"/>
+      <c r="AT135" s="15"/>
+      <c r="AU135" s="15"/>
+      <c r="AV135" s="15"/>
+      <c r="AW135" s="15"/>
+      <c r="AX135" s="15"/>
+      <c r="AY135" s="15"/>
+      <c r="AZ135" s="15"/>
+      <c r="BA135" s="15"/>
+      <c r="BB135" s="15"/>
+      <c r="BC135" s="15"/>
+      <c r="BD135" s="15"/>
+      <c r="BE135" s="15"/>
+      <c r="BF135" s="15"/>
+      <c r="BG135" s="15"/>
+      <c r="BH135" s="15"/>
+      <c r="BI135" s="15"/>
+      <c r="BJ135" s="15"/>
+      <c r="BK135" s="15"/>
+      <c r="BL135" s="15"/>
+      <c r="BM135" s="15"/>
+      <c r="BN135" s="15"/>
+      <c r="BO135" s="15"/>
+      <c r="BP135" s="15"/>
+      <c r="BQ135" s="15"/>
+      <c r="BR135" s="15"/>
+      <c r="BS135" s="15"/>
+      <c r="BT135" s="15"/>
+      <c r="BU135" s="15"/>
+      <c r="BV135" s="15"/>
+      <c r="BW135" s="15"/>
+      <c r="BX135" s="15"/>
+      <c r="BY135" s="15"/>
+      <c r="BZ135" s="15"/>
+      <c r="CA135" s="15"/>
+      <c r="CB135" s="15"/>
+      <c r="CC135" s="15"/>
+      <c r="CD135" s="15"/>
+      <c r="CE135" s="15"/>
+      <c r="CF135" s="15"/>
+      <c r="CG135" s="15"/>
+      <c r="CH135" s="15"/>
+      <c r="CI135" s="15"/>
+      <c r="CJ135" s="15"/>
+      <c r="CK135" s="15"/>
     </row>
     <row r="136" spans="6:89" x14ac:dyDescent="0.25">
       <c r="F136" s="14"/>
@@ -17401,6 +17002,55 @@
       <c r="AL136" s="14"/>
       <c r="AM136" s="14"/>
       <c r="AN136" s="14"/>
+      <c r="AO136" s="15"/>
+      <c r="AP136" s="15"/>
+      <c r="AQ136" s="15"/>
+      <c r="AR136" s="15"/>
+      <c r="AS136" s="15"/>
+      <c r="AT136" s="15"/>
+      <c r="AU136" s="15"/>
+      <c r="AV136" s="15"/>
+      <c r="AW136" s="15"/>
+      <c r="AX136" s="15"/>
+      <c r="AY136" s="15"/>
+      <c r="AZ136" s="15"/>
+      <c r="BA136" s="15"/>
+      <c r="BB136" s="15"/>
+      <c r="BC136" s="15"/>
+      <c r="BD136" s="15"/>
+      <c r="BE136" s="15"/>
+      <c r="BF136" s="15"/>
+      <c r="BG136" s="15"/>
+      <c r="BH136" s="15"/>
+      <c r="BI136" s="15"/>
+      <c r="BJ136" s="15"/>
+      <c r="BK136" s="15"/>
+      <c r="BL136" s="15"/>
+      <c r="BM136" s="15"/>
+      <c r="BN136" s="15"/>
+      <c r="BO136" s="15"/>
+      <c r="BP136" s="15"/>
+      <c r="BQ136" s="15"/>
+      <c r="BR136" s="15"/>
+      <c r="BS136" s="15"/>
+      <c r="BT136" s="15"/>
+      <c r="BU136" s="15"/>
+      <c r="BV136" s="15"/>
+      <c r="BW136" s="15"/>
+      <c r="BX136" s="15"/>
+      <c r="BY136" s="15"/>
+      <c r="BZ136" s="15"/>
+      <c r="CA136" s="15"/>
+      <c r="CB136" s="15"/>
+      <c r="CC136" s="15"/>
+      <c r="CD136" s="15"/>
+      <c r="CE136" s="15"/>
+      <c r="CF136" s="15"/>
+      <c r="CG136" s="15"/>
+      <c r="CH136" s="15"/>
+      <c r="CI136" s="15"/>
+      <c r="CJ136" s="15"/>
+      <c r="CK136" s="15"/>
     </row>
     <row r="137" spans="6:89" x14ac:dyDescent="0.25">
       <c r="F137" s="14"/>
@@ -17476,18 +17126,128 @@
       <c r="AM138" s="14"/>
       <c r="AN138" s="14"/>
     </row>
+    <row r="139" spans="6:89" x14ac:dyDescent="0.25">
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="14"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="14"/>
+      <c r="O139" s="14"/>
+      <c r="P139" s="14"/>
+      <c r="Q139" s="14"/>
+      <c r="R139" s="14"/>
+      <c r="S139" s="14"/>
+      <c r="T139" s="14"/>
+      <c r="U139" s="14"/>
+      <c r="V139" s="14"/>
+      <c r="W139" s="14"/>
+      <c r="X139" s="14"/>
+      <c r="Y139" s="14"/>
+      <c r="Z139" s="14"/>
+      <c r="AA139" s="14"/>
+      <c r="AB139" s="14"/>
+      <c r="AC139" s="14"/>
+      <c r="AD139" s="14"/>
+      <c r="AE139" s="14"/>
+      <c r="AF139" s="14"/>
+      <c r="AG139" s="14"/>
+      <c r="AH139" s="14"/>
+      <c r="AI139" s="14"/>
+      <c r="AJ139" s="14"/>
+      <c r="AK139" s="14"/>
+      <c r="AL139" s="14"/>
+      <c r="AM139" s="14"/>
+      <c r="AN139" s="14"/>
+    </row>
+    <row r="140" spans="6:89" x14ac:dyDescent="0.25">
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="14"/>
+      <c r="M140" s="14"/>
+      <c r="N140" s="14"/>
+      <c r="O140" s="14"/>
+      <c r="P140" s="14"/>
+      <c r="Q140" s="14"/>
+      <c r="R140" s="14"/>
+      <c r="S140" s="14"/>
+      <c r="T140" s="14"/>
+      <c r="U140" s="14"/>
+      <c r="V140" s="14"/>
+      <c r="W140" s="14"/>
+      <c r="X140" s="14"/>
+      <c r="Y140" s="14"/>
+      <c r="Z140" s="14"/>
+      <c r="AA140" s="14"/>
+      <c r="AB140" s="14"/>
+      <c r="AC140" s="14"/>
+      <c r="AD140" s="14"/>
+      <c r="AE140" s="14"/>
+      <c r="AF140" s="14"/>
+      <c r="AG140" s="14"/>
+      <c r="AH140" s="14"/>
+      <c r="AI140" s="14"/>
+      <c r="AJ140" s="14"/>
+      <c r="AK140" s="14"/>
+      <c r="AL140" s="14"/>
+      <c r="AM140" s="14"/>
+      <c r="AN140" s="14"/>
+    </row>
+    <row r="141" spans="6:89" x14ac:dyDescent="0.25">
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="14"/>
+      <c r="L141" s="14"/>
+      <c r="M141" s="14"/>
+      <c r="N141" s="14"/>
+      <c r="O141" s="14"/>
+      <c r="P141" s="14"/>
+      <c r="Q141" s="14"/>
+      <c r="R141" s="14"/>
+      <c r="S141" s="14"/>
+      <c r="T141" s="14"/>
+      <c r="U141" s="14"/>
+      <c r="V141" s="14"/>
+      <c r="W141" s="14"/>
+      <c r="X141" s="14"/>
+      <c r="Y141" s="14"/>
+      <c r="Z141" s="14"/>
+      <c r="AA141" s="14"/>
+      <c r="AB141" s="14"/>
+      <c r="AC141" s="14"/>
+      <c r="AD141" s="14"/>
+      <c r="AE141" s="14"/>
+      <c r="AF141" s="14"/>
+      <c r="AG141" s="14"/>
+      <c r="AH141" s="14"/>
+      <c r="AI141" s="14"/>
+      <c r="AJ141" s="14"/>
+      <c r="AK141" s="14"/>
+      <c r="AL141" s="14"/>
+      <c r="AM141" s="14"/>
+      <c r="AN141" s="14"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D11:V18">
-    <sortCondition ref="D11:D18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D14:V21">
+    <sortCondition ref="D14:D21"/>
   </sortState>
-  <mergeCells count="7">
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B67:D67"/>
+  <mergeCells count="6">
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B70:D70"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
